--- a/Data/urls and tweet names.xlsx
+++ b/Data/urls and tweet names.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colej\Documents\Research projects\covid_leaders_gender\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github projects\polpan\covid_leaders_gender\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263E392D-90CF-4CEA-A155-86AF7E71A2CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AADC5C-5F10-46A6-BD6A-2EE25801C665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
   </bookViews>
   <sheets>
     <sheet name="immigration" sheetId="1" r:id="rId1"/>
     <sheet name="covid" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$H$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">immigration!$A$1:$H$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
   <si>
     <t>Tweet name</t>
   </si>
@@ -404,6 +408,15 @@
   </si>
   <si>
     <t>gap_anger_trust</t>
+  </si>
+  <si>
+    <t>selection_jk</t>
+  </si>
+  <si>
+    <t>selection_JK</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -781,18 +794,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4486E-E01C-4D25-85C4-44DBEAA8987E}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,263 +826,281 @@
         <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>3.403</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="C2">
-        <v>1.234</v>
+        <v>7.0629999999999997</v>
       </c>
       <c r="D2">
-        <v>0.96799999999999997</v>
+        <v>5.0129999999999999</v>
       </c>
       <c r="E2">
-        <v>6.2210000000000001</v>
+        <v>0.94</v>
       </c>
       <c r="F2">
-        <v>4.9870000000000001</v>
+        <v>-6.1229999999999993</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>4.1619999999999999</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="C3">
-        <v>1.806</v>
+        <v>6.7039999999999997</v>
       </c>
       <c r="D3">
-        <v>1.2789999999999999</v>
+        <v>6.2679999999999998</v>
       </c>
       <c r="E3">
-        <v>7.4779999999999998</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="F3">
-        <v>5.6719999999999997</v>
+        <v>-5.6769999999999996</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>4.0439999999999996</v>
+        <v>1.425</v>
       </c>
       <c r="C4">
-        <v>1.254</v>
+        <v>5.6630000000000003</v>
       </c>
       <c r="D4">
-        <v>0.84699999999999998</v>
+        <v>1.653</v>
       </c>
       <c r="E4">
-        <v>7.8410000000000002</v>
+        <v>1.167</v>
       </c>
       <c r="F4">
-        <v>6.5869999999999997</v>
+        <v>-4.4960000000000004</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>4.516</v>
+        <v>2.2469999999999999</v>
       </c>
       <c r="C5">
-        <v>1.81</v>
+        <v>4.9880000000000004</v>
       </c>
       <c r="D5">
-        <v>0.91900000000000004</v>
+        <v>3.286</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="F5">
-        <v>5.1899999999999995</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-3.8010000000000002</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>4.1189999999999998</v>
+        <v>1.8720000000000001</v>
       </c>
       <c r="C6">
-        <v>2.968</v>
+        <v>4.9160000000000004</v>
       </c>
       <c r="D6">
-        <v>1.254</v>
+        <v>2.0760000000000001</v>
       </c>
       <c r="E6">
-        <v>5.806</v>
+        <v>1.597</v>
       </c>
       <c r="F6">
-        <v>2.8380000000000001</v>
+        <v>-3.3190000000000004</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>4.0979999999999999</v>
+        <v>2.105</v>
       </c>
       <c r="C7">
-        <v>1.38</v>
+        <v>5.125</v>
       </c>
       <c r="D7">
-        <v>0.97399999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="E7">
-        <v>6.75</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="F7">
-        <v>5.37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-3.4239999999999999</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>4.0979999999999999</v>
+        <v>1.427</v>
       </c>
       <c r="C8">
-        <v>1.5429999999999999</v>
+        <v>5.3949999999999996</v>
       </c>
       <c r="D8">
-        <v>0.73199999999999998</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="E8">
-        <v>6.1070000000000002</v>
+        <v>1.7689999999999999</v>
       </c>
       <c r="F8">
-        <v>4.5640000000000001</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-3.6259999999999994</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B9">
-        <v>3.8919999999999999</v>
+        <v>1.8480000000000001</v>
       </c>
       <c r="C9">
-        <v>2.0859999999999999</v>
+        <v>4.6379999999999999</v>
       </c>
       <c r="D9">
-        <v>1.163</v>
+        <v>1.77</v>
       </c>
       <c r="E9">
-        <v>6.7759999999999998</v>
+        <v>1.899</v>
       </c>
       <c r="F9">
-        <v>4.6899999999999995</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.7389999999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>3.58</v>
+        <v>1.85</v>
       </c>
       <c r="C10">
-        <v>1.7529999999999999</v>
+        <v>4.3410000000000002</v>
       </c>
       <c r="D10">
-        <v>1.0249999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="E10">
-        <v>6.2140000000000004</v>
+        <v>1.95</v>
       </c>
       <c r="F10">
-        <v>4.4610000000000003</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.391</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>3.548</v>
+        <v>1.56</v>
       </c>
       <c r="C11">
-        <v>2.3250000000000002</v>
+        <v>5.25</v>
       </c>
       <c r="D11">
-        <v>1.165</v>
+        <v>2.2890000000000001</v>
       </c>
       <c r="E11">
-        <v>6.1150000000000002</v>
+        <v>1.9610000000000001</v>
       </c>
       <c r="F11">
-        <v>3.79</v>
+        <v>-3.2889999999999997</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>5.2149999999999999</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="C12">
-        <v>1.5129999999999999</v>
+        <v>5.4939999999999998</v>
       </c>
       <c r="D12">
-        <v>1.079</v>
+        <v>4.7949999999999999</v>
       </c>
       <c r="E12">
-        <v>6.6790000000000003</v>
+        <v>2.012</v>
       </c>
       <c r="F12">
-        <v>5.1660000000000004</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-3.4819999999999998</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1087,103 +1119,109 @@
       <c r="F13">
         <v>-2.9059999999999997</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>1.0409999999999999</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="C14">
-        <v>6.7039999999999997</v>
+        <v>4.2590000000000003</v>
       </c>
       <c r="D14">
-        <v>6.2679999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="E14">
-        <v>1.0269999999999999</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="F14">
-        <v>-5.6769999999999996</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.8950000000000005</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>4.6820000000000004</v>
+        <v>3.101</v>
       </c>
       <c r="C15">
-        <v>1.964</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="D15">
-        <v>1.169</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="E15">
-        <v>4.1180000000000003</v>
+        <v>2.5539999999999998</v>
       </c>
       <c r="F15">
-        <v>2.1540000000000004</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.9340000000000006</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="C16">
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="D16">
+        <v>3.4359999999999999</v>
+      </c>
+      <c r="E16">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="F16">
+        <v>-2.4110000000000005</v>
+      </c>
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>3.7949999999999999</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>3.1829999999999998</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>1.5</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>3.476</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.29300000000000015</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>2.8519999999999999</v>
-      </c>
-      <c r="C17">
-        <v>2.9039999999999999</v>
-      </c>
-      <c r="D17">
-        <v>1.6080000000000001</v>
-      </c>
-      <c r="E17">
-        <v>3.9279999999999999</v>
-      </c>
-      <c r="F17">
-        <v>1.024</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1202,333 +1240,353 @@
       <c r="F18">
         <v>-0.7200000000000002</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>2.105</v>
+        <v>2.7949999999999999</v>
       </c>
       <c r="C19">
-        <v>5.125</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="D19">
-        <v>2.16</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="E19">
-        <v>1.7010000000000001</v>
+        <v>3.698</v>
       </c>
       <c r="F19">
-        <v>-3.4239999999999999</v>
-      </c>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.0630000000000002</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>1.8380000000000001</v>
+        <v>2.8519999999999999</v>
       </c>
       <c r="C20">
-        <v>5.2590000000000003</v>
+        <v>2.9039999999999999</v>
       </c>
       <c r="D20">
-        <v>3.4359999999999999</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="E20">
-        <v>2.8479999999999999</v>
+        <v>3.9279999999999999</v>
       </c>
       <c r="F20">
-        <v>-2.4110000000000005</v>
+        <v>1.024</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>2.3330000000000002</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C21">
-        <v>5.4939999999999998</v>
+        <v>1.964</v>
       </c>
       <c r="D21">
-        <v>4.7949999999999999</v>
+        <v>1.169</v>
       </c>
       <c r="E21">
-        <v>2.012</v>
+        <v>4.1180000000000003</v>
       </c>
       <c r="F21">
-        <v>-3.4819999999999998</v>
-      </c>
-      <c r="G21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.1540000000000004</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>1.56</v>
+        <v>4.1189999999999998</v>
       </c>
       <c r="C22">
-        <v>5.25</v>
+        <v>2.968</v>
       </c>
       <c r="D22">
-        <v>2.2890000000000001</v>
+        <v>1.254</v>
       </c>
       <c r="E22">
-        <v>1.9610000000000001</v>
+        <v>5.806</v>
       </c>
       <c r="F22">
-        <v>-3.2889999999999997</v>
-      </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.8380000000000001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>1.427</v>
+        <v>4.0979999999999999</v>
       </c>
       <c r="C23">
-        <v>5.3949999999999996</v>
+        <v>1.5429999999999999</v>
       </c>
       <c r="D23">
-        <v>2.4470000000000001</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="E23">
-        <v>1.7689999999999999</v>
+        <v>6.1070000000000002</v>
       </c>
       <c r="F23">
-        <v>-3.6259999999999994</v>
+        <v>4.5640000000000001</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>2.3769999999999998</v>
+        <v>3.548</v>
       </c>
       <c r="C24">
-        <v>4.2590000000000003</v>
+        <v>2.3250000000000002</v>
       </c>
       <c r="D24">
-        <v>1.72</v>
+        <v>1.165</v>
       </c>
       <c r="E24">
-        <v>2.3639999999999999</v>
+        <v>6.1150000000000002</v>
       </c>
       <c r="F24">
-        <v>-1.8950000000000005</v>
-      </c>
-      <c r="G24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>1.85</v>
+        <v>3.58</v>
       </c>
       <c r="C25">
-        <v>4.3410000000000002</v>
+        <v>1.7529999999999999</v>
       </c>
       <c r="D25">
-        <v>1.57</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="E25">
-        <v>1.95</v>
+        <v>6.2140000000000004</v>
       </c>
       <c r="F25">
-        <v>-2.391</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.4610000000000003</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>2.7949999999999999</v>
+        <v>3.403</v>
       </c>
       <c r="C26">
-        <v>2.6349999999999998</v>
+        <v>1.234</v>
       </c>
       <c r="D26">
-        <v>1.2250000000000001</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="E26">
-        <v>3.698</v>
+        <v>6.2210000000000001</v>
       </c>
       <c r="F26">
-        <v>1.0630000000000002</v>
-      </c>
-      <c r="G26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>1.8720000000000001</v>
+        <v>5.2149999999999999</v>
       </c>
       <c r="C27">
-        <v>4.9160000000000004</v>
+        <v>1.5129999999999999</v>
       </c>
       <c r="D27">
-        <v>2.0760000000000001</v>
+        <v>1.079</v>
       </c>
       <c r="E27">
-        <v>1.597</v>
+        <v>6.6790000000000003</v>
       </c>
       <c r="F27">
-        <v>-3.3190000000000004</v>
-      </c>
-      <c r="G27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.1660000000000004</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>0.81799999999999995</v>
+        <v>4.0979999999999999</v>
       </c>
       <c r="C28">
-        <v>7.0629999999999997</v>
+        <v>1.38</v>
       </c>
       <c r="D28">
-        <v>5.0129999999999999</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E28">
-        <v>0.94</v>
+        <v>6.75</v>
       </c>
       <c r="F28">
-        <v>-6.1229999999999993</v>
+        <v>5.37</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>1.8480000000000001</v>
+        <v>3.8919999999999999</v>
       </c>
       <c r="C29">
-        <v>4.6379999999999999</v>
+        <v>2.0859999999999999</v>
       </c>
       <c r="D29">
-        <v>1.77</v>
+        <v>1.163</v>
       </c>
       <c r="E29">
-        <v>1.899</v>
+        <v>6.7759999999999998</v>
       </c>
       <c r="F29">
-        <v>-2.7389999999999999</v>
-      </c>
-      <c r="G29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.6899999999999995</v>
+      </c>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>1.425</v>
+        <v>4.516</v>
       </c>
       <c r="C30">
-        <v>5.6630000000000003</v>
+        <v>1.81</v>
       </c>
       <c r="D30">
-        <v>1.653</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="E30">
-        <v>1.167</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>-4.4960000000000004</v>
-      </c>
-      <c r="G30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.1899999999999995</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>2.2469999999999999</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="C31">
-        <v>4.9880000000000004</v>
+        <v>1.806</v>
       </c>
       <c r="D31">
-        <v>3.286</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="E31">
-        <v>1.1870000000000001</v>
+        <v>7.4779999999999998</v>
       </c>
       <c r="F31">
-        <v>-3.8010000000000002</v>
+        <v>5.6719999999999997</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>3.101</v>
+        <v>4.0439999999999996</v>
       </c>
       <c r="C32">
-        <v>4.4880000000000004</v>
+        <v>1.254</v>
       </c>
       <c r="D32">
-        <v>1.9350000000000001</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="E32">
-        <v>2.5539999999999998</v>
+        <v>7.8410000000000002</v>
       </c>
       <c r="F32">
-        <v>-1.9340000000000006</v>
+        <v>6.5869999999999997</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>125</v>
+      </c>
+      <c r="H32" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H32" xr:uid="{F3A6193A-CC72-4EA3-9756-EF782EA4EFA3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H32">
+      <sortCondition ref="E1:E32"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1537,18 +1595,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EED990-D6F7-4EFC-9974-FCEDBCC8E7AD}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1564,638 +1623,682 @@
       <c r="E1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>6.3860000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E2">
+        <v>6.4139999999999997</v>
+      </c>
+      <c r="F2">
+        <v>5.5519999999999996</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3">
+        <v>4.5</v>
+      </c>
+      <c r="C3">
+        <v>1.224</v>
+      </c>
+      <c r="D3">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E3">
+        <v>7.3179999999999996</v>
+      </c>
+      <c r="F3">
+        <v>6.0939999999999994</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="C4">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E4">
+        <v>7.6379999999999999</v>
+      </c>
+      <c r="F4">
+        <v>6.343</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5">
+        <v>4.2</v>
+      </c>
+      <c r="C5">
+        <v>1.403</v>
+      </c>
+      <c r="D5">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="E5">
+        <v>7.1029999999999998</v>
+      </c>
+      <c r="F5">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E6">
+        <v>8.1489999999999991</v>
+      </c>
+      <c r="F6">
+        <v>6.6489999999999991</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B2">
+      <c r="B7">
         <v>2.4529999999999998</v>
       </c>
-      <c r="C2">
+      <c r="C7">
         <v>1.5229999999999999</v>
       </c>
-      <c r="D2">
+      <c r="D7">
         <v>0.80600000000000005</v>
       </c>
-      <c r="E2">
+      <c r="E7">
         <v>7.5739999999999998</v>
       </c>
-      <c r="F2">
+      <c r="F7">
         <v>6.0510000000000002</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
-        <v>6.3860000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="E3">
-        <v>6.4139999999999997</v>
-      </c>
-      <c r="F3">
-        <v>5.5519999999999996</v>
-      </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>4.75</v>
+      </c>
+      <c r="C8">
+        <v>1.6</v>
+      </c>
+      <c r="D8">
+        <v>1.25</v>
+      </c>
+      <c r="E8">
+        <v>8.4290000000000003</v>
+      </c>
+      <c r="F8">
+        <v>6.8290000000000006</v>
+      </c>
+      <c r="G8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B4">
+      <c r="B9">
         <v>4.9560000000000004</v>
       </c>
-      <c r="C4">
+      <c r="C9">
         <v>1.6719999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D9">
         <v>1.127</v>
       </c>
-      <c r="E4">
+      <c r="E9">
         <v>6.8239999999999998</v>
       </c>
-      <c r="F4">
+      <c r="F9">
         <v>5.1520000000000001</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <v>5.2990000000000004</v>
+      </c>
+      <c r="C10">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E10">
+        <v>6.2839999999999998</v>
+      </c>
+      <c r="F10">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="H10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>3.532</v>
+      </c>
+      <c r="C11">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="D11">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="E11">
+        <v>5.758</v>
+      </c>
+      <c r="F11">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="C12">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.41</v>
+      </c>
+      <c r="E12">
+        <v>5.4029999999999996</v>
+      </c>
+      <c r="F12">
+        <v>2.2969999999999997</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>4.319</v>
+      </c>
+      <c r="C13">
+        <v>4.056</v>
+      </c>
+      <c r="D13">
+        <v>1.536</v>
+      </c>
+      <c r="E13">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="F13">
+        <v>-2.613</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>2.609</v>
+      </c>
+      <c r="C14">
+        <v>5.0289999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E14">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F14">
+        <v>-4.3520000000000003</v>
+      </c>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>1.143</v>
+      </c>
+      <c r="C15">
+        <v>5.0750000000000002</v>
+      </c>
+      <c r="D15">
+        <v>2.831</v>
+      </c>
+      <c r="E15">
+        <v>0.59</v>
+      </c>
+      <c r="F15">
+        <v>-4.4850000000000003</v>
+      </c>
+      <c r="G15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>67</v>
       </c>
-      <c r="B5">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C16">
         <v>5.2990000000000004</v>
       </c>
-      <c r="D5">
+      <c r="D16">
         <v>2.8239999999999998</v>
       </c>
-      <c r="E5">
+      <c r="E16">
         <v>1.615</v>
       </c>
-      <c r="F5">
+      <c r="F16">
         <v>-3.6840000000000002</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>1.079</v>
+      </c>
+      <c r="C17">
+        <v>5.6870000000000003</v>
+      </c>
+      <c r="D17">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F17">
+        <v>-5.0540000000000003</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="C18">
+        <v>5.8479999999999999</v>
+      </c>
+      <c r="D18">
+        <v>5.2389999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F18">
+        <v>-4.8970000000000002</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>2.29</v>
+      </c>
+      <c r="C19">
+        <v>5.8810000000000002</v>
+      </c>
+      <c r="D19">
+        <v>2.9060000000000001</v>
+      </c>
+      <c r="E19">
+        <v>1.167</v>
+      </c>
+      <c r="F19">
+        <v>-4.7140000000000004</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="C20">
+        <v>5.8819999999999997</v>
+      </c>
+      <c r="D20">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>-4.8819999999999997</v>
+      </c>
+      <c r="H20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>2.569</v>
+      </c>
+      <c r="C21">
+        <v>5.9420000000000002</v>
+      </c>
+      <c r="D21">
+        <v>3.806</v>
+      </c>
+      <c r="E21">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="F21">
+        <v>-4.665</v>
+      </c>
+      <c r="H21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="C22">
+        <v>6.1369999999999996</v>
+      </c>
+      <c r="D22">
+        <v>1.806</v>
+      </c>
+      <c r="E22">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F22">
+        <v>-5.2889999999999997</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>1.71</v>
+      </c>
+      <c r="C23">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="D23">
+        <v>3.891</v>
+      </c>
+      <c r="E23">
+        <v>0.95</v>
+      </c>
+      <c r="F23">
+        <v>-5.2379999999999995</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="C24">
+        <v>6.2859999999999996</v>
+      </c>
+      <c r="D24">
+        <v>5.8550000000000004</v>
+      </c>
+      <c r="E24">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="F24">
+        <v>-5.4169999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>1.167</v>
+      </c>
+      <c r="C25">
+        <v>6.4790000000000001</v>
+      </c>
+      <c r="D25">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.877</v>
+      </c>
+      <c r="F25">
+        <v>-5.6020000000000003</v>
+      </c>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="C26">
+        <v>6.5670000000000002</v>
+      </c>
+      <c r="D26">
+        <v>2.8</v>
+      </c>
+      <c r="E26">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F26">
+        <v>-5.71</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>68</v>
       </c>
-      <c r="B6">
+      <c r="B27">
         <v>1.6</v>
       </c>
-      <c r="C6">
+      <c r="C27">
         <v>6.6269999999999998</v>
       </c>
-      <c r="D6">
+      <c r="D27">
         <v>2.1230000000000002</v>
       </c>
-      <c r="E6">
+      <c r="E27">
         <v>0.54</v>
       </c>
-      <c r="F6">
+      <c r="F27">
         <v>-6.0869999999999997</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>3.8149999999999999</v>
-      </c>
-      <c r="C7">
-        <v>3.1059999999999999</v>
-      </c>
-      <c r="D7">
-        <v>1.41</v>
-      </c>
-      <c r="E7">
-        <v>5.4029999999999996</v>
-      </c>
-      <c r="F7">
-        <v>2.2969999999999997</v>
-      </c>
-      <c r="G7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>1.8460000000000001</v>
-      </c>
-      <c r="C8">
-        <v>6.5670000000000002</v>
-      </c>
-      <c r="D8">
-        <v>2.8</v>
-      </c>
-      <c r="E8">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="F8">
-        <v>-5.71</v>
-      </c>
-      <c r="G8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B9">
+      <c r="B28">
         <v>2.1749999999999998</v>
       </c>
-      <c r="C9">
+      <c r="C28">
         <v>6.8029999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D28">
         <v>3.161</v>
       </c>
-      <c r="E9">
+      <c r="E28">
         <v>0.91700000000000004</v>
       </c>
-      <c r="F9">
+      <c r="F28">
         <v>-5.8860000000000001</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10">
-        <v>4.319</v>
-      </c>
-      <c r="C10">
-        <v>4.056</v>
-      </c>
-      <c r="D10">
-        <v>1.536</v>
-      </c>
-      <c r="E10">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="F10">
-        <v>-2.613</v>
-      </c>
-      <c r="G10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11">
-        <v>1.4710000000000001</v>
-      </c>
-      <c r="C11">
-        <v>5.8819999999999997</v>
-      </c>
-      <c r="D11">
-        <v>2.8180000000000001</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>-4.8819999999999997</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12">
-        <v>1.71</v>
-      </c>
-      <c r="C12">
-        <v>6.1879999999999997</v>
-      </c>
-      <c r="D12">
-        <v>3.891</v>
-      </c>
-      <c r="E12">
-        <v>0.95</v>
-      </c>
-      <c r="F12">
-        <v>-5.2379999999999995</v>
-      </c>
-      <c r="G12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13">
-        <v>2.569</v>
-      </c>
-      <c r="C13">
-        <v>5.9420000000000002</v>
-      </c>
-      <c r="D13">
-        <v>3.806</v>
-      </c>
-      <c r="E13">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="F13">
-        <v>-4.665</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14">
-        <v>2.29</v>
-      </c>
-      <c r="C14">
-        <v>5.8810000000000002</v>
-      </c>
-      <c r="D14">
-        <v>2.9060000000000001</v>
-      </c>
-      <c r="E14">
-        <v>1.167</v>
-      </c>
-      <c r="F14">
-        <v>-4.7140000000000004</v>
-      </c>
-      <c r="G14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="C15">
-        <v>6.2859999999999996</v>
-      </c>
-      <c r="D15">
-        <v>5.8550000000000004</v>
-      </c>
-      <c r="E15">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="F15">
-        <v>-5.4169999999999998</v>
-      </c>
-      <c r="G15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16">
-        <v>1.143</v>
-      </c>
-      <c r="C16">
-        <v>5.0750000000000002</v>
-      </c>
-      <c r="D16">
-        <v>2.831</v>
-      </c>
-      <c r="E16">
-        <v>0.59</v>
-      </c>
-      <c r="F16">
-        <v>-4.4850000000000003</v>
-      </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="C17">
-        <v>5.8479999999999999</v>
-      </c>
-      <c r="D17">
-        <v>5.2389999999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="F17">
-        <v>-4.8970000000000002</v>
-      </c>
-      <c r="G17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18">
-        <v>2.609</v>
-      </c>
-      <c r="C18">
-        <v>5.0289999999999999</v>
-      </c>
-      <c r="D18">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="E18">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="F18">
-        <v>-4.3520000000000003</v>
-      </c>
-      <c r="G18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19">
-        <v>1.167</v>
-      </c>
-      <c r="C19">
-        <v>6.4790000000000001</v>
-      </c>
-      <c r="D19">
-        <v>5.5350000000000001</v>
-      </c>
-      <c r="E19">
-        <v>0.877</v>
-      </c>
-      <c r="F19">
-        <v>-5.6020000000000003</v>
-      </c>
-      <c r="G19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="C20">
-        <v>6.1369999999999996</v>
-      </c>
-      <c r="D20">
-        <v>1.806</v>
-      </c>
-      <c r="E20">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="F20">
-        <v>-5.2889999999999997</v>
-      </c>
-      <c r="G20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21">
-        <v>3.532</v>
-      </c>
-      <c r="C21">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="D21">
-        <v>1.2809999999999999</v>
-      </c>
-      <c r="E21">
-        <v>5.758</v>
-      </c>
-      <c r="F21">
-        <v>3.0910000000000002</v>
-      </c>
-      <c r="G21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22">
-        <v>4.75</v>
-      </c>
-      <c r="C22">
-        <v>1.6</v>
-      </c>
-      <c r="D22">
-        <v>1.25</v>
-      </c>
-      <c r="E22">
-        <v>8.4290000000000003</v>
-      </c>
-      <c r="F22">
-        <v>6.8290000000000006</v>
-      </c>
-      <c r="G22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23">
-        <v>1.079</v>
-      </c>
-      <c r="C23">
-        <v>5.6870000000000003</v>
-      </c>
-      <c r="D23">
-        <v>3.1539999999999999</v>
-      </c>
-      <c r="E23">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="F23">
-        <v>-5.0540000000000003</v>
-      </c>
-      <c r="G23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24">
-        <v>5.2990000000000004</v>
-      </c>
-      <c r="C24">
-        <v>1.8460000000000001</v>
-      </c>
-      <c r="D24">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E24">
-        <v>6.2839999999999998</v>
-      </c>
-      <c r="F24">
-        <v>4.4379999999999997</v>
-      </c>
-      <c r="G24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25">
-        <v>5.3529999999999998</v>
-      </c>
-      <c r="C25">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="D25">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="E25">
-        <v>7.6379999999999999</v>
-      </c>
-      <c r="F25">
-        <v>6.343</v>
-      </c>
-      <c r="G25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26">
-        <v>2.0310000000000001</v>
-      </c>
-      <c r="C26">
-        <v>1.5</v>
-      </c>
-      <c r="D26">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="E26">
-        <v>8.1489999999999991</v>
-      </c>
-      <c r="F26">
-        <v>6.6489999999999991</v>
-      </c>
-      <c r="G26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27">
-        <v>4.2</v>
-      </c>
-      <c r="C27">
-        <v>1.403</v>
-      </c>
-      <c r="D27">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="E27">
-        <v>7.1029999999999998</v>
-      </c>
-      <c r="F27">
-        <v>5.6999999999999993</v>
-      </c>
-      <c r="G27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28">
-        <v>4.5</v>
-      </c>
-      <c r="C28">
-        <v>1.224</v>
-      </c>
-      <c r="D28">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="E28">
-        <v>7.3179999999999996</v>
-      </c>
-      <c r="F28">
-        <v>6.0939999999999994</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:H28" xr:uid="{126BD3DF-1197-4B07-A469-03E2E8EA072E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+      <sortCondition ref="C1:C28"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G28" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Data/urls and tweet names.xlsx
+++ b/Data/urls and tweet names.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github projects\polpan\covid_leaders_gender\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colej\Documents\Research projects\covid_leaders_gender\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AADC5C-5F10-46A6-BD6A-2EE25801C665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01329C74-B479-4E2E-AE8A-4F2122BBB2F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
   </bookViews>
   <sheets>
     <sheet name="immigration" sheetId="1" r:id="rId1"/>
     <sheet name="covid" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$H$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">immigration!$A$1:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">immigration!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="128">
   <si>
     <t>Tweet name</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>selection_ch</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
 </sst>
 </file>
@@ -794,19 +800,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4486E-E01C-4D25-85C4-44DBEAA8987E}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,10 +836,13 @@
         <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -855,10 +865,13 @@
         <v>125</v>
       </c>
       <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -881,10 +894,13 @@
         <v>125</v>
       </c>
       <c r="H3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -907,10 +923,13 @@
         <v>125</v>
       </c>
       <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -929,11 +948,11 @@
       <c r="F5">
         <v>-3.8010000000000002</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -956,10 +975,13 @@
         <v>125</v>
       </c>
       <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -978,11 +1000,11 @@
       <c r="F7">
         <v>-3.4239999999999999</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1001,11 +1023,11 @@
       <c r="F8">
         <v>-3.6259999999999994</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1024,11 +1046,11 @@
       <c r="F9">
         <v>-2.7389999999999999</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1047,11 +1069,11 @@
       <c r="F10">
         <v>-2.391</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1074,10 +1096,13 @@
         <v>125</v>
       </c>
       <c r="H11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1096,11 +1121,11 @@
       <c r="F12">
         <v>-3.4819999999999998</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1119,11 +1144,11 @@
       <c r="F13">
         <v>-2.9059999999999997</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1142,11 +1167,11 @@
       <c r="F14">
         <v>-1.8950000000000005</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1165,11 +1190,11 @@
       <c r="F15">
         <v>-1.9340000000000006</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1192,10 +1217,13 @@
         <v>125</v>
       </c>
       <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1218,10 +1246,13 @@
         <v>125</v>
       </c>
       <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1240,11 +1271,11 @@
       <c r="F18">
         <v>-0.7200000000000002</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1263,11 +1294,11 @@
       <c r="F19">
         <v>1.0630000000000002</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1290,10 +1321,13 @@
         <v>125</v>
       </c>
       <c r="H20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1312,11 +1346,11 @@
       <c r="F21">
         <v>2.1540000000000004</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1335,11 +1369,11 @@
       <c r="F22">
         <v>2.8380000000000001</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1362,10 +1396,13 @@
         <v>125</v>
       </c>
       <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1384,11 +1421,11 @@
       <c r="F24">
         <v>3.79</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1407,11 +1444,11 @@
       <c r="F25">
         <v>4.4610000000000003</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1430,11 +1467,11 @@
       <c r="F26">
         <v>4.9870000000000001</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1453,11 +1490,11 @@
       <c r="F27">
         <v>5.1660000000000004</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1480,10 +1517,13 @@
         <v>125</v>
       </c>
       <c r="H28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1502,11 +1542,11 @@
       <c r="F29">
         <v>4.6899999999999995</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1525,11 +1565,11 @@
       <c r="F30">
         <v>5.1899999999999995</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1552,10 +1592,13 @@
         <v>125</v>
       </c>
       <c r="H31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1578,12 +1621,15 @@
         <v>125</v>
       </c>
       <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H32" xr:uid="{F3A6193A-CC72-4EA3-9756-EF782EA4EFA3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H32">
+  <autoFilter ref="A1:I32" xr:uid="{F3A6193A-CC72-4EA3-9756-EF782EA4EFA3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I32">
       <sortCondition ref="E1:E32"/>
     </sortState>
   </autoFilter>
@@ -1595,19 +1641,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EED990-D6F7-4EFC-9974-FCEDBCC8E7AD}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1630,10 +1677,13 @@
         <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1656,10 +1706,13 @@
         <v>125</v>
       </c>
       <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1678,11 +1731,11 @@
       <c r="F3">
         <v>6.0939999999999994</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -1705,10 +1758,13 @@
         <v>125</v>
       </c>
       <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1727,11 +1783,11 @@
       <c r="F5">
         <v>5.6999999999999993</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -1754,10 +1810,13 @@
         <v>125</v>
       </c>
       <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1776,11 +1835,11 @@
       <c r="F7">
         <v>6.0510000000000002</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1803,10 +1862,13 @@
         <v>125</v>
       </c>
       <c r="H8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1826,10 +1888,13 @@
         <v>5.1520000000000001</v>
       </c>
       <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -1848,11 +1913,11 @@
       <c r="F10">
         <v>4.4379999999999997</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1871,11 +1936,11 @@
       <c r="F11">
         <v>3.0910000000000002</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1894,11 +1959,11 @@
       <c r="F12">
         <v>2.2969999999999997</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1917,11 +1982,11 @@
       <c r="F13">
         <v>-2.613</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1940,11 +2005,11 @@
       <c r="F14">
         <v>-4.3520000000000003</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -1967,10 +2032,13 @@
         <v>125</v>
       </c>
       <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1989,11 +2057,11 @@
       <c r="F16">
         <v>-3.6840000000000002</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -2016,10 +2084,13 @@
         <v>125</v>
       </c>
       <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2042,10 +2113,13 @@
         <v>125</v>
       </c>
       <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2068,10 +2142,13 @@
         <v>125</v>
       </c>
       <c r="H19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -2090,11 +2167,11 @@
       <c r="F20">
         <v>-4.8819999999999997</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -2113,11 +2190,11 @@
       <c r="F21">
         <v>-4.665</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2140,10 +2217,13 @@
         <v>125</v>
       </c>
       <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -2162,11 +2242,11 @@
       <c r="F23">
         <v>-5.2379999999999995</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -2185,11 +2265,11 @@
       <c r="F24">
         <v>-5.4169999999999998</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2208,11 +2288,11 @@
       <c r="F25">
         <v>-5.6020000000000003</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2235,10 +2315,13 @@
         <v>125</v>
       </c>
       <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -2261,10 +2344,13 @@
         <v>125</v>
       </c>
       <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -2287,18 +2373,21 @@
         <v>125</v>
       </c>
       <c r="H28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H28" xr:uid="{126BD3DF-1197-4B07-A469-03E2E8EA072E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+  <autoFilter ref="A1:I28" xr:uid="{126BD3DF-1197-4B07-A469-03E2E8EA072E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I28">
       <sortCondition ref="C1:C28"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Data/urls and tweet names.xlsx
+++ b/Data/urls and tweet names.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colej\Documents\Research projects\covid_leaders_gender\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01329C74-B479-4E2E-AE8A-4F2122BBB2F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B894DAD-AF46-4AAE-A3E4-0E141372631A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
   </bookViews>
   <sheets>
     <sheet name="immigration" sheetId="1" r:id="rId1"/>
     <sheet name="covid" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$I$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">immigration!$A$1:$I$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">immigration!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="132">
   <si>
     <t>Tweet name</t>
   </si>
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t>maybe</t>
+  </si>
+  <si>
+    <t>selection_category</t>
+  </si>
+  <si>
+    <t>high_trust</t>
+  </si>
+  <si>
+    <t>high_anger</t>
+  </si>
+  <si>
+    <t>control</t>
   </si>
 </sst>
 </file>
@@ -800,20 +812,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4486E-E01C-4D25-85C4-44DBEAA8987E}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="8" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,10 +851,13 @@
         <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -868,10 +883,13 @@
         <v>125</v>
       </c>
       <c r="I2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -897,10 +915,13 @@
         <v>125</v>
       </c>
       <c r="I3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -926,10 +947,13 @@
         <v>125</v>
       </c>
       <c r="I4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -948,230 +972,248 @@
       <c r="F5">
         <v>-3.8010000000000002</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>1.427</v>
+      </c>
+      <c r="C6">
+        <v>5.3949999999999996</v>
+      </c>
+      <c r="D6">
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="E6">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="F6">
+        <v>-3.6259999999999994</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="C7">
+        <v>5.4939999999999998</v>
+      </c>
+      <c r="D7">
+        <v>4.7949999999999999</v>
+      </c>
+      <c r="E7">
+        <v>2.012</v>
+      </c>
+      <c r="F7">
+        <v>-3.4819999999999998</v>
+      </c>
+      <c r="H7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>2.105</v>
+      </c>
+      <c r="C8">
+        <v>5.125</v>
+      </c>
+      <c r="D8">
+        <v>2.16</v>
+      </c>
+      <c r="E8">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="F8">
+        <v>-3.4239999999999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>1.8720000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>4.9160000000000004</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>2.0760000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>1.597</v>
       </c>
-      <c r="F6">
+      <c r="F9">
         <v>-3.3190000000000004</v>
       </c>
-      <c r="G6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>2.105</v>
-      </c>
-      <c r="C7">
-        <v>5.125</v>
-      </c>
-      <c r="D7">
-        <v>2.16</v>
-      </c>
-      <c r="E7">
-        <v>1.7010000000000001</v>
-      </c>
-      <c r="F7">
-        <v>-3.4239999999999999</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>1.427</v>
-      </c>
-      <c r="C8">
-        <v>5.3949999999999996</v>
-      </c>
-      <c r="D8">
-        <v>2.4470000000000001</v>
-      </c>
-      <c r="E8">
-        <v>1.7689999999999999</v>
-      </c>
-      <c r="F8">
-        <v>-3.6259999999999994</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1.56</v>
+      </c>
+      <c r="C10">
+        <v>5.25</v>
+      </c>
+      <c r="D10">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="F10">
+        <v>-3.2889999999999997</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="C11">
+        <v>5.2649999999999997</v>
+      </c>
+      <c r="D11">
+        <v>3.7970000000000002</v>
+      </c>
+      <c r="E11">
+        <v>2.359</v>
+      </c>
+      <c r="F11">
+        <v>-2.9059999999999997</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
+      <c r="B12">
         <v>1.8480000000000001</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>4.6379999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <v>1.77</v>
       </c>
-      <c r="E9">
+      <c r="E12">
         <v>1.899</v>
       </c>
-      <c r="F9">
+      <c r="F12">
         <v>-2.7389999999999999</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="C13">
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="D13">
+        <v>3.4359999999999999</v>
+      </c>
+      <c r="E13">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="F13">
+        <v>-2.4110000000000005</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="B14">
         <v>1.85</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <v>4.3410000000000002</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <v>1.57</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>1.95</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <v>-2.391</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>1.56</v>
-      </c>
-      <c r="C11">
-        <v>5.25</v>
-      </c>
-      <c r="D11">
-        <v>2.2890000000000001</v>
-      </c>
-      <c r="E11">
-        <v>1.9610000000000001</v>
-      </c>
-      <c r="F11">
-        <v>-3.2889999999999997</v>
-      </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>2.3330000000000002</v>
-      </c>
-      <c r="C12">
-        <v>5.4939999999999998</v>
-      </c>
-      <c r="D12">
-        <v>4.7949999999999999</v>
-      </c>
-      <c r="E12">
-        <v>2.012</v>
-      </c>
-      <c r="F12">
-        <v>-3.4819999999999998</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1.2370000000000001</v>
-      </c>
-      <c r="C13">
-        <v>5.2649999999999997</v>
-      </c>
-      <c r="D13">
-        <v>3.7970000000000002</v>
-      </c>
-      <c r="E13">
-        <v>2.359</v>
-      </c>
-      <c r="F13">
-        <v>-2.9059999999999997</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>2.3769999999999998</v>
-      </c>
-      <c r="C14">
-        <v>4.2590000000000003</v>
-      </c>
-      <c r="D14">
-        <v>1.72</v>
-      </c>
-      <c r="E14">
-        <v>2.3639999999999999</v>
-      </c>
-      <c r="F14">
-        <v>-1.8950000000000005</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1190,144 +1232,156 @@
       <c r="F15">
         <v>-1.9340000000000006</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>1.8380000000000001</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="C16">
-        <v>5.2590000000000003</v>
+        <v>4.2590000000000003</v>
       </c>
       <c r="D16">
-        <v>3.4359999999999999</v>
+        <v>1.72</v>
       </c>
       <c r="E16">
-        <v>2.8479999999999999</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="F16">
-        <v>-2.4110000000000005</v>
-      </c>
-      <c r="G16" t="s">
-        <v>125</v>
+        <v>-1.8950000000000005</v>
       </c>
       <c r="H16" t="s">
         <v>125</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="C17">
+        <v>4.415</v>
+      </c>
+      <c r="D17">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="E17">
+        <v>3.6949999999999998</v>
+      </c>
+      <c r="F17">
+        <v>-0.7200000000000002</v>
+      </c>
+      <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>3.7949999999999999</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>3.1829999999999998</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1.5</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>3.476</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.29300000000000015</v>
       </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>2.4740000000000002</v>
-      </c>
-      <c r="C18">
-        <v>4.415</v>
-      </c>
-      <c r="D18">
-        <v>2.3849999999999998</v>
-      </c>
-      <c r="E18">
-        <v>3.6949999999999998</v>
-      </c>
-      <c r="F18">
-        <v>-0.7200000000000002</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="C19">
+        <v>2.9039999999999999</v>
+      </c>
+      <c r="D19">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="E19">
+        <v>3.9279999999999999</v>
+      </c>
+      <c r="F19">
+        <v>1.024</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>2.7949999999999999</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2.6349999999999998</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>1.2250000000000001</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>3.698</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>1.0630000000000002</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>2.8519999999999999</v>
-      </c>
-      <c r="C20">
-        <v>2.9039999999999999</v>
-      </c>
-      <c r="D20">
-        <v>1.6080000000000001</v>
-      </c>
-      <c r="E20">
-        <v>3.9279999999999999</v>
-      </c>
-      <c r="F20">
-        <v>1.024</v>
-      </c>
-      <c r="G20" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1346,11 +1400,11 @@
       <c r="F21">
         <v>2.1540000000000004</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1369,207 +1423,219 @@
       <c r="F22">
         <v>2.8380000000000001</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>3.548</v>
+      </c>
+      <c r="C23">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="D23">
+        <v>1.165</v>
+      </c>
+      <c r="E23">
+        <v>6.1150000000000002</v>
+      </c>
+      <c r="F23">
+        <v>3.79</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>3.58</v>
+      </c>
+      <c r="C24">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="D24">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E24">
+        <v>6.2140000000000004</v>
+      </c>
+      <c r="F24">
+        <v>4.4610000000000003</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>4.0979999999999999</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>1.5429999999999999</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>0.73199999999999998</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>6.1070000000000002</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>4.5640000000000001</v>
       </c>
-      <c r="G23" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>3.548</v>
-      </c>
-      <c r="C24">
-        <v>2.3250000000000002</v>
-      </c>
-      <c r="D24">
-        <v>1.165</v>
-      </c>
-      <c r="E24">
-        <v>6.1150000000000002</v>
-      </c>
-      <c r="F24">
-        <v>3.79</v>
-      </c>
-      <c r="I24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>3.58</v>
-      </c>
-      <c r="C25">
-        <v>1.7529999999999999</v>
-      </c>
-      <c r="D25">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="E25">
-        <v>6.2140000000000004</v>
-      </c>
-      <c r="F25">
-        <v>4.4610000000000003</v>
-      </c>
-      <c r="I25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>3.8919999999999999</v>
+      </c>
+      <c r="C26">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="D26">
+        <v>1.163</v>
+      </c>
+      <c r="E26">
+        <v>6.7759999999999998</v>
+      </c>
+      <c r="F26">
+        <v>4.6899999999999995</v>
+      </c>
+      <c r="J26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>3.403</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>1.234</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>0.96799999999999997</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>6.2210000000000001</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>4.9870000000000001</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>5.2149999999999999</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>1.5129999999999999</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>1.079</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>6.6790000000000003</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>5.1660000000000004</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>4.516</v>
+      </c>
+      <c r="C29">
+        <v>1.81</v>
+      </c>
+      <c r="D29">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E29">
         <v>7</v>
       </c>
-      <c r="B28">
+      <c r="F29">
+        <v>5.1899999999999995</v>
+      </c>
+      <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
         <v>4.0979999999999999</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>1.38</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>0.97399999999999998</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>6.75</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>5.37</v>
       </c>
-      <c r="G28" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" t="s">
         <v>127</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>3.8919999999999999</v>
-      </c>
-      <c r="C29">
-        <v>2.0859999999999999</v>
-      </c>
-      <c r="D29">
-        <v>1.163</v>
-      </c>
-      <c r="E29">
-        <v>6.7759999999999998</v>
-      </c>
-      <c r="F29">
-        <v>4.6899999999999995</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>4.516</v>
-      </c>
-      <c r="C30">
-        <v>1.81</v>
-      </c>
-      <c r="D30">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="E30">
-        <v>7</v>
-      </c>
-      <c r="F30">
-        <v>5.1899999999999995</v>
-      </c>
-      <c r="I30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1595,10 +1661,13 @@
         <v>125</v>
       </c>
       <c r="I31" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1624,13 +1693,16 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I32" xr:uid="{F3A6193A-CC72-4EA3-9756-EF782EA4EFA3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I32">
-      <sortCondition ref="E1:E32"/>
+  <autoFilter ref="A1:J32" xr:uid="{F3A6193A-CC72-4EA3-9756-EF782EA4EFA3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J32">
+      <sortCondition ref="F1:F32"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1641,20 +1713,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EED990-D6F7-4EFC-9974-FCEDBCC8E7AD}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,27 +1752,30 @@
         <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>6.3860000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="C2">
-        <v>0.86199999999999999</v>
+        <v>6.6269999999999998</v>
       </c>
       <c r="D2">
-        <v>0.70299999999999996</v>
+        <v>2.1230000000000002</v>
       </c>
       <c r="E2">
-        <v>6.4139999999999997</v>
+        <v>0.54</v>
       </c>
       <c r="F2">
-        <v>5.5519999999999996</v>
+        <v>-6.0869999999999997</v>
       </c>
       <c r="G2" t="s">
         <v>125</v>
@@ -1709,50 +1784,62 @@
         <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>4.5</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="C3">
-        <v>1.224</v>
+        <v>6.8029999999999999</v>
       </c>
       <c r="D3">
-        <v>0.80400000000000005</v>
+        <v>3.161</v>
       </c>
       <c r="E3">
-        <v>7.3179999999999996</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="F3">
-        <v>6.0939999999999994</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-5.8860000000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B4">
-        <v>5.3529999999999998</v>
+        <v>1.8460000000000001</v>
       </c>
       <c r="C4">
-        <v>1.2949999999999999</v>
+        <v>6.5670000000000002</v>
       </c>
       <c r="D4">
-        <v>0.98399999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="E4">
-        <v>7.6379999999999999</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="F4">
-        <v>6.343</v>
+        <v>-5.71</v>
       </c>
       <c r="G4" t="s">
         <v>125</v>
@@ -1761,284 +1848,311 @@
         <v>125</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B5">
-        <v>4.2</v>
+        <v>1.167</v>
       </c>
       <c r="C5">
-        <v>1.403</v>
+        <v>6.4790000000000001</v>
       </c>
       <c r="D5">
-        <v>1.0980000000000001</v>
+        <v>5.5350000000000001</v>
       </c>
       <c r="E5">
-        <v>7.1029999999999998</v>
+        <v>0.877</v>
       </c>
       <c r="F5">
-        <v>5.6999999999999993</v>
+        <v>-5.6020000000000003</v>
+      </c>
+      <c r="H5" t="s">
+        <v>125</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B6">
-        <v>2.0310000000000001</v>
+        <v>1.2190000000000001</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>6.2859999999999996</v>
       </c>
       <c r="D6">
-        <v>0.83099999999999996</v>
+        <v>5.8550000000000004</v>
       </c>
       <c r="E6">
-        <v>8.1489999999999991</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="F6">
-        <v>6.6489999999999991</v>
-      </c>
-      <c r="G6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-5.4169999999999998</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B7">
-        <v>2.4529999999999998</v>
+        <v>1.1859999999999999</v>
       </c>
       <c r="C7">
-        <v>1.5229999999999999</v>
+        <v>6.1369999999999996</v>
       </c>
       <c r="D7">
-        <v>0.80600000000000005</v>
+        <v>1.806</v>
       </c>
       <c r="E7">
-        <v>7.5739999999999998</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="F7">
-        <v>6.0510000000000002</v>
-      </c>
-      <c r="I7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-5.2889999999999997</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>4.75</v>
+        <v>1.71</v>
       </c>
       <c r="C8">
-        <v>1.6</v>
+        <v>6.1879999999999997</v>
       </c>
       <c r="D8">
-        <v>1.25</v>
+        <v>3.891</v>
       </c>
       <c r="E8">
-        <v>8.4290000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="F8">
-        <v>6.8290000000000006</v>
-      </c>
-      <c r="G8" t="s">
-        <v>125</v>
+        <v>-5.2379999999999995</v>
       </c>
       <c r="H8" t="s">
         <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B9">
-        <v>4.9560000000000004</v>
+        <v>1.079</v>
       </c>
       <c r="C9">
-        <v>1.6719999999999999</v>
+        <v>5.6870000000000003</v>
       </c>
       <c r="D9">
-        <v>1.127</v>
+        <v>3.1539999999999999</v>
       </c>
       <c r="E9">
-        <v>6.8239999999999998</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F9">
-        <v>5.1520000000000001</v>
-      </c>
-      <c r="H9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-5.0540000000000003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B10">
-        <v>5.2990000000000004</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="C10">
-        <v>1.8460000000000001</v>
+        <v>5.8479999999999999</v>
       </c>
       <c r="D10">
-        <v>0.82799999999999996</v>
+        <v>5.2389999999999999</v>
       </c>
       <c r="E10">
-        <v>6.2839999999999998</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="F10">
-        <v>4.4379999999999997</v>
-      </c>
-      <c r="I10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-4.8970000000000002</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B11">
-        <v>3.532</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="C11">
-        <v>2.6669999999999998</v>
+        <v>5.8819999999999997</v>
       </c>
       <c r="D11">
-        <v>1.2809999999999999</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="E11">
-        <v>5.758</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>3.0910000000000002</v>
-      </c>
-      <c r="I11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-4.8819999999999997</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B12">
-        <v>3.8149999999999999</v>
+        <v>2.29</v>
       </c>
       <c r="C12">
-        <v>3.1059999999999999</v>
+        <v>5.8810000000000002</v>
       </c>
       <c r="D12">
-        <v>1.41</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="E12">
-        <v>5.4029999999999996</v>
+        <v>1.167</v>
       </c>
       <c r="F12">
-        <v>2.2969999999999997</v>
+        <v>-4.7140000000000004</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" t="s">
+        <v>125</v>
       </c>
       <c r="I12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B13">
-        <v>4.319</v>
+        <v>2.569</v>
       </c>
       <c r="C13">
-        <v>4.056</v>
+        <v>5.9420000000000002</v>
       </c>
       <c r="D13">
-        <v>1.536</v>
+        <v>3.806</v>
       </c>
       <c r="E13">
-        <v>1.4430000000000001</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="F13">
-        <v>-2.613</v>
-      </c>
-      <c r="I13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-4.665</v>
+      </c>
+      <c r="J13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>1.143</v>
+      </c>
+      <c r="C14">
+        <v>5.0750000000000002</v>
+      </c>
+      <c r="D14">
+        <v>2.831</v>
+      </c>
+      <c r="E14">
+        <v>0.59</v>
+      </c>
+      <c r="F14">
+        <v>-4.4850000000000003</v>
+      </c>
+      <c r="G14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>80</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2.609</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>5.0289999999999999</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>0.91900000000000004</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>0.67700000000000005</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>-4.3520000000000003</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15">
-        <v>1.143</v>
-      </c>
-      <c r="C15">
-        <v>5.0750000000000002</v>
-      </c>
-      <c r="D15">
-        <v>2.831</v>
-      </c>
-      <c r="E15">
-        <v>0.59</v>
-      </c>
-      <c r="F15">
-        <v>-4.4850000000000003</v>
-      </c>
-      <c r="G15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2057,259 +2171,256 @@
       <c r="F16">
         <v>-3.6840000000000002</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B17">
-        <v>1.079</v>
+        <v>4.319</v>
       </c>
       <c r="C17">
-        <v>5.6870000000000003</v>
+        <v>4.056</v>
       </c>
       <c r="D17">
-        <v>3.1539999999999999</v>
+        <v>1.536</v>
       </c>
       <c r="E17">
-        <v>0.63300000000000001</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="F17">
-        <v>-5.0540000000000003</v>
-      </c>
-      <c r="G17" t="s">
-        <v>125</v>
+        <v>-2.613</v>
       </c>
       <c r="H17" t="s">
         <v>125</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B18">
-        <v>1.4750000000000001</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="C18">
-        <v>5.8479999999999999</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="D18">
-        <v>5.2389999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="E18">
-        <v>0.95099999999999996</v>
+        <v>5.4029999999999996</v>
       </c>
       <c r="F18">
-        <v>-4.8970000000000002</v>
-      </c>
-      <c r="G18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.2969999999999997</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B19">
-        <v>2.29</v>
+        <v>3.532</v>
       </c>
       <c r="C19">
-        <v>5.8810000000000002</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="D19">
-        <v>2.9060000000000001</v>
+        <v>1.2809999999999999</v>
       </c>
       <c r="E19">
-        <v>1.167</v>
+        <v>5.758</v>
       </c>
       <c r="F19">
-        <v>-4.7140000000000004</v>
-      </c>
-      <c r="G19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="J19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B20">
-        <v>1.4710000000000001</v>
+        <v>5.2990000000000004</v>
       </c>
       <c r="C20">
-        <v>5.8819999999999997</v>
+        <v>1.8460000000000001</v>
       </c>
       <c r="D20">
-        <v>2.8180000000000001</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>6.2839999999999998</v>
       </c>
       <c r="F20">
-        <v>-4.8819999999999997</v>
-      </c>
-      <c r="I20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="J20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B21">
-        <v>2.569</v>
+        <v>4.9560000000000004</v>
       </c>
       <c r="C21">
-        <v>5.9420000000000002</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="D21">
-        <v>3.806</v>
+        <v>1.127</v>
       </c>
       <c r="E21">
-        <v>1.2769999999999999</v>
+        <v>6.8239999999999998</v>
       </c>
       <c r="F21">
-        <v>-4.665</v>
-      </c>
-      <c r="I21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.1520000000000001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B22">
-        <v>1.1859999999999999</v>
+        <v>6.3860000000000001</v>
       </c>
       <c r="C22">
-        <v>6.1369999999999996</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D22">
-        <v>1.806</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="E22">
-        <v>0.84799999999999998</v>
+        <v>6.4139999999999997</v>
       </c>
       <c r="F22">
-        <v>-5.2889999999999997</v>
+        <v>5.5519999999999996</v>
       </c>
       <c r="G22" t="s">
         <v>125</v>
       </c>
-      <c r="H22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B23">
-        <v>1.71</v>
+        <v>4.2</v>
       </c>
       <c r="C23">
-        <v>6.1879999999999997</v>
+        <v>1.403</v>
       </c>
       <c r="D23">
-        <v>3.891</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="E23">
-        <v>0.95</v>
+        <v>7.1029999999999998</v>
       </c>
       <c r="F23">
-        <v>-5.2379999999999995</v>
-      </c>
-      <c r="I23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="J23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B24">
-        <v>1.2190000000000001</v>
+        <v>2.4529999999999998</v>
       </c>
       <c r="C24">
-        <v>6.2859999999999996</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="D24">
-        <v>5.8550000000000004</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="E24">
-        <v>0.86899999999999999</v>
+        <v>7.5739999999999998</v>
       </c>
       <c r="F24">
-        <v>-5.4169999999999998</v>
+        <v>6.0510000000000002</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B25">
-        <v>1.167</v>
+        <v>4.5</v>
       </c>
       <c r="C25">
-        <v>6.4790000000000001</v>
+        <v>1.224</v>
       </c>
       <c r="D25">
-        <v>5.5350000000000001</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="E25">
-        <v>0.877</v>
+        <v>7.3179999999999996</v>
       </c>
       <c r="F25">
-        <v>-5.6020000000000003</v>
+        <v>6.0939999999999994</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
       </c>
       <c r="I25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B26">
-        <v>1.8460000000000001</v>
+        <v>5.3529999999999998</v>
       </c>
       <c r="C26">
-        <v>6.5670000000000002</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="D26">
-        <v>2.8</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="E26">
-        <v>0.85699999999999998</v>
+        <v>7.6379999999999999</v>
       </c>
       <c r="F26">
-        <v>-5.71</v>
+        <v>6.343</v>
       </c>
       <c r="G26" t="s">
         <v>125</v>
@@ -2318,56 +2429,62 @@
         <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="J26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="B27">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.5</v>
+      </c>
+      <c r="D27">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E27">
+        <v>8.1489999999999991</v>
+      </c>
+      <c r="F27">
+        <v>6.6489999999999991</v>
+      </c>
+      <c r="G27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28">
+        <v>4.75</v>
+      </c>
+      <c r="C28">
         <v>1.6</v>
       </c>
-      <c r="C27">
-        <v>6.6269999999999998</v>
-      </c>
-      <c r="D27">
-        <v>2.1230000000000002</v>
-      </c>
-      <c r="E27">
-        <v>0.54</v>
-      </c>
-      <c r="F27">
-        <v>-6.0869999999999997</v>
-      </c>
-      <c r="G27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" t="s">
-        <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28">
-        <v>2.1749999999999998</v>
-      </c>
-      <c r="C28">
-        <v>6.8029999999999999</v>
-      </c>
       <c r="D28">
-        <v>3.161</v>
+        <v>1.25</v>
       </c>
       <c r="E28">
-        <v>0.91700000000000004</v>
+        <v>8.4290000000000003</v>
       </c>
       <c r="F28">
-        <v>-5.8860000000000001</v>
+        <v>6.8290000000000006</v>
       </c>
       <c r="G28" t="s">
         <v>125</v>
@@ -2376,18 +2493,21 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>130</v>
+      </c>
+      <c r="J28" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I28" xr:uid="{126BD3DF-1197-4B07-A469-03E2E8EA072E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I28">
-      <sortCondition ref="C1:C28"/>
+  <autoFilter ref="A1:J28" xr:uid="{126BD3DF-1197-4B07-A469-03E2E8EA072E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
+      <sortCondition ref="F1:F28"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
+    <hyperlink ref="J25" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Data/urls and tweet names.xlsx
+++ b/Data/urls and tweet names.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colej\Documents\Research projects\covid_leaders_gender\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github projects\polpan\covid_leaders_gender\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B894DAD-AF46-4AAE-A3E4-0E141372631A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F4801E-FD0D-4586-A4C6-8B45501D63C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
   </bookViews>
   <sheets>
     <sheet name="immigration" sheetId="1" r:id="rId1"/>
     <sheet name="covid" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$J$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">immigration!$A$1:$J$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$K$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">immigration!$A$1:$K$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
   <si>
     <t>Tweet name</t>
   </si>
@@ -435,6 +435,12 @@
   </si>
   <si>
     <t>control</t>
+  </si>
+  <si>
+    <t>selection_mi</t>
+  </si>
+  <si>
+    <t>control(?)</t>
   </si>
 </sst>
 </file>
@@ -812,20 +818,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4486E-E01C-4D25-85C4-44DBEAA8987E}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,16 +854,19 @@
         <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -883,13 +892,16 @@
         <v>125</v>
       </c>
       <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
         <v>129</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -915,13 +927,16 @@
         <v>125</v>
       </c>
       <c r="I3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
         <v>129</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -947,13 +962,16 @@
         <v>125</v>
       </c>
       <c r="I4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" t="s">
         <v>129</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -972,11 +990,11 @@
       <c r="F5">
         <v>-3.8010000000000002</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -999,13 +1017,16 @@
         <v>125</v>
       </c>
       <c r="I6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" t="s">
         <v>129</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1028,13 +1049,16 @@
         <v>125</v>
       </c>
       <c r="I7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" t="s">
         <v>129</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1053,11 +1077,11 @@
       <c r="F8">
         <v>-3.4239999999999999</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1082,11 +1106,14 @@
       <c r="H9" t="s">
         <v>125</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1108,11 +1135,11 @@
       <c r="G10" t="s">
         <v>125</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1131,11 +1158,11 @@
       <c r="F11">
         <v>-2.9059999999999997</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1154,11 +1181,11 @@
       <c r="F12">
         <v>-2.7389999999999999</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1180,11 +1207,11 @@
       <c r="G13" t="s">
         <v>125</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1207,13 +1234,16 @@
         <v>125</v>
       </c>
       <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
         <v>131</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1232,11 +1262,11 @@
       <c r="F15">
         <v>-1.9340000000000006</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1259,13 +1289,16 @@
         <v>125</v>
       </c>
       <c r="I16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" t="s">
         <v>131</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1288,13 +1321,16 @@
         <v>125</v>
       </c>
       <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
         <v>131</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1320,13 +1356,16 @@
         <v>125</v>
       </c>
       <c r="I18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" t="s">
         <v>131</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1348,17 +1387,17 @@
       <c r="G19" t="s">
         <v>125</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>127</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>131</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1377,11 +1416,11 @@
       <c r="F20">
         <v>1.0630000000000002</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1400,11 +1439,11 @@
       <c r="F21">
         <v>2.1540000000000004</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1423,11 +1462,11 @@
       <c r="F22">
         <v>2.8380000000000001</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1446,11 +1485,11 @@
       <c r="F23">
         <v>3.79</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1469,11 +1508,11 @@
       <c r="F24">
         <v>4.4610000000000003</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1499,13 +1538,16 @@
         <v>125</v>
       </c>
       <c r="I25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" t="s">
         <v>130</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1524,11 +1566,11 @@
       <c r="F26">
         <v>4.6899999999999995</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1547,11 +1589,11 @@
       <c r="F27">
         <v>4.9870000000000001</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1570,11 +1612,11 @@
       <c r="F28">
         <v>5.1660000000000004</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1597,13 +1639,16 @@
         <v>125</v>
       </c>
       <c r="I29" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" t="s">
         <v>130</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1626,16 +1671,19 @@
         <v>125</v>
       </c>
       <c r="H30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" t="s">
         <v>127</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>130</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1661,13 +1709,16 @@
         <v>125</v>
       </c>
       <c r="I31" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" t="s">
         <v>130</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1693,40 +1744,56 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" t="s">
         <v>130</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J32" xr:uid="{F3A6193A-CC72-4EA3-9756-EF782EA4EFA3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J32">
+  <autoFilter ref="A1:K32" xr:uid="{F3A6193A-CC72-4EA3-9756-EF782EA4EFA3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K32">
       <sortCondition ref="F1:F32"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{7B69BB90-BE8E-8743-A993-DFE2C7FAB6B6}"/>
+    <hyperlink ref="K6" r:id="rId2" xr:uid="{1DD2D80F-3E62-8A4B-BA22-CC391C6295EB}"/>
+    <hyperlink ref="K7" r:id="rId3" xr:uid="{D19306D5-C5A3-214A-9E4B-C9B372BD5898}"/>
+    <hyperlink ref="K9" r:id="rId4" xr:uid="{A653B129-DBB3-E54A-BCCC-44272EF22464}"/>
+    <hyperlink ref="K13" r:id="rId5" xr:uid="{89A710FC-B457-C34E-9686-8C292D8F7245}"/>
+    <hyperlink ref="K30" r:id="rId6" xr:uid="{B2F2C672-F2AA-394A-8B4C-EF0D1E31F26A}"/>
+    <hyperlink ref="K29" r:id="rId7" xr:uid="{10C97B21-2E2F-7840-A91A-2C46C0D99A38}"/>
+    <hyperlink ref="K17" r:id="rId8" xr:uid="{B02DF016-F3CA-6F4C-BAD4-1CCE79A9DA33}"/>
+    <hyperlink ref="K16" r:id="rId9" xr:uid="{913F7A1C-1AC0-0F4C-BF86-4C0E2A1B21A6}"/>
+    <hyperlink ref="K14" r:id="rId10" xr:uid="{2B23FFF7-1FA2-D846-98E4-17AEE5C4ACB6}"/>
+    <hyperlink ref="K10" r:id="rId11" xr:uid="{51FFE589-2335-AD4E-866A-8428EE13F612}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EED990-D6F7-4EFC-9974-FCEDBCC8E7AD}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1749,33 +1816,36 @@
         <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B2">
+        <v>4.75</v>
+      </c>
+      <c r="C2">
         <v>1.6</v>
       </c>
-      <c r="C2">
-        <v>6.6269999999999998</v>
-      </c>
       <c r="D2">
-        <v>2.1230000000000002</v>
+        <v>1.25</v>
       </c>
       <c r="E2">
-        <v>0.54</v>
+        <v>8.4290000000000003</v>
       </c>
       <c r="F2">
-        <v>-6.0869999999999997</v>
+        <v>6.8290000000000006</v>
       </c>
       <c r="G2" t="s">
         <v>125</v>
@@ -1784,30 +1854,33 @@
         <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B3">
-        <v>2.1749999999999998</v>
+        <v>2.0310000000000001</v>
       </c>
       <c r="C3">
-        <v>6.8029999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="D3">
-        <v>3.161</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="E3">
-        <v>0.91700000000000004</v>
+        <v>8.1489999999999991</v>
       </c>
       <c r="F3">
-        <v>-5.8860000000000001</v>
+        <v>6.6489999999999991</v>
       </c>
       <c r="G3" t="s">
         <v>125</v>
@@ -1816,314 +1889,314 @@
         <v>125</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="K3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B4">
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="C4">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E4">
+        <v>7.6379999999999999</v>
+      </c>
+      <c r="F4">
+        <v>6.343</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>4.5</v>
+      </c>
+      <c r="C5">
+        <v>1.224</v>
+      </c>
+      <c r="D5">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E5">
+        <v>7.3179999999999996</v>
+      </c>
+      <c r="F5">
+        <v>6.0939999999999994</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="C6">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E6">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="F6">
+        <v>6.0510000000000002</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7">
+        <v>4.2</v>
+      </c>
+      <c r="C7">
+        <v>1.403</v>
+      </c>
+      <c r="D7">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="E7">
+        <v>7.1029999999999998</v>
+      </c>
+      <c r="F7">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="K7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>6.3860000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E8">
+        <v>6.4139999999999997</v>
+      </c>
+      <c r="F8">
+        <v>5.5519999999999996</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="C9">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="D9">
+        <v>1.127</v>
+      </c>
+      <c r="E9">
+        <v>6.8239999999999998</v>
+      </c>
+      <c r="F9">
+        <v>5.1520000000000001</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <v>5.2990000000000004</v>
+      </c>
+      <c r="C10">
         <v>1.8460000000000001</v>
       </c>
-      <c r="C4">
-        <v>6.5670000000000002</v>
-      </c>
-      <c r="D4">
-        <v>2.8</v>
-      </c>
-      <c r="E4">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="F4">
-        <v>-5.71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5">
-        <v>1.167</v>
-      </c>
-      <c r="C5">
-        <v>6.4790000000000001</v>
-      </c>
-      <c r="D5">
-        <v>5.5350000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.877</v>
-      </c>
-      <c r="F5">
-        <v>-5.6020000000000003</v>
-      </c>
-      <c r="H5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="C6">
-        <v>6.2859999999999996</v>
-      </c>
-      <c r="D6">
-        <v>5.8550000000000004</v>
-      </c>
-      <c r="E6">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="F6">
-        <v>-5.4169999999999998</v>
-      </c>
-      <c r="J6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="C7">
-        <v>6.1369999999999996</v>
-      </c>
-      <c r="D7">
-        <v>1.806</v>
-      </c>
-      <c r="E7">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="F7">
-        <v>-5.2889999999999997</v>
-      </c>
-      <c r="G7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8">
-        <v>1.71</v>
-      </c>
-      <c r="C8">
-        <v>6.1879999999999997</v>
-      </c>
-      <c r="D8">
-        <v>3.891</v>
-      </c>
-      <c r="E8">
-        <v>0.95</v>
-      </c>
-      <c r="F8">
-        <v>-5.2379999999999995</v>
-      </c>
-      <c r="H8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9">
-        <v>1.079</v>
-      </c>
-      <c r="C9">
-        <v>5.6870000000000003</v>
-      </c>
-      <c r="D9">
-        <v>3.1539999999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="F9">
-        <v>-5.0540000000000003</v>
-      </c>
-      <c r="G9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="C10">
-        <v>5.8479999999999999</v>
-      </c>
       <c r="D10">
-        <v>5.2389999999999999</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="E10">
-        <v>0.95099999999999996</v>
+        <v>6.2839999999999998</v>
       </c>
       <c r="F10">
-        <v>-4.8970000000000002</v>
-      </c>
-      <c r="G10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>1.4710000000000001</v>
+        <v>3.532</v>
       </c>
       <c r="C11">
-        <v>5.8819999999999997</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="D11">
-        <v>2.8180000000000001</v>
+        <v>1.2809999999999999</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5.758</v>
       </c>
       <c r="F11">
-        <v>-4.8819999999999997</v>
-      </c>
-      <c r="J11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B12">
-        <v>2.29</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="C12">
-        <v>5.8810000000000002</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="D12">
-        <v>2.9060000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="E12">
-        <v>1.167</v>
+        <v>5.4029999999999996</v>
       </c>
       <c r="F12">
-        <v>-4.7140000000000004</v>
-      </c>
-      <c r="G12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" t="s">
+        <v>2.2969999999999997</v>
+      </c>
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>4.319</v>
+      </c>
+      <c r="C13">
+        <v>4.056</v>
+      </c>
+      <c r="D13">
+        <v>1.536</v>
+      </c>
+      <c r="E13">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="F13">
+        <v>-2.613</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
         <v>131</v>
       </c>
-      <c r="J12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13">
-        <v>2.569</v>
-      </c>
-      <c r="C13">
-        <v>5.9420000000000002</v>
-      </c>
-      <c r="D13">
-        <v>3.806</v>
-      </c>
-      <c r="E13">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="F13">
-        <v>-4.665</v>
-      </c>
-      <c r="J13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>1.143</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>5.0750000000000002</v>
+        <v>5.2990000000000004</v>
       </c>
       <c r="D14">
-        <v>2.831</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="E14">
-        <v>0.59</v>
+        <v>1.615</v>
       </c>
       <c r="F14">
-        <v>-4.4850000000000003</v>
-      </c>
-      <c r="G14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-3.6840000000000002</v>
+      </c>
+      <c r="K14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -2142,285 +2215,321 @@
       <c r="F15">
         <v>-4.3520000000000003</v>
       </c>
+      <c r="G15" t="s">
+        <v>125</v>
+      </c>
       <c r="H15" t="s">
         <v>125</v>
       </c>
       <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
         <v>131</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1.143</v>
       </c>
       <c r="C16">
-        <v>5.2990000000000004</v>
+        <v>5.0750000000000002</v>
       </c>
       <c r="D16">
-        <v>2.8239999999999998</v>
+        <v>2.831</v>
       </c>
       <c r="E16">
-        <v>1.615</v>
+        <v>0.59</v>
       </c>
       <c r="F16">
-        <v>-3.6840000000000002</v>
+        <v>-4.4850000000000003</v>
+      </c>
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" t="s">
+        <v>125</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B17">
-        <v>4.319</v>
+        <v>2.569</v>
       </c>
       <c r="C17">
-        <v>4.056</v>
+        <v>5.9420000000000002</v>
       </c>
       <c r="D17">
-        <v>1.536</v>
+        <v>3.806</v>
       </c>
       <c r="E17">
-        <v>1.4430000000000001</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="F17">
-        <v>-2.613</v>
-      </c>
-      <c r="H17" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" t="s">
+        <v>-4.665</v>
+      </c>
+      <c r="K17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>2.29</v>
+      </c>
+      <c r="C18">
+        <v>5.8810000000000002</v>
+      </c>
+      <c r="D18">
+        <v>2.9060000000000001</v>
+      </c>
+      <c r="E18">
+        <v>1.167</v>
+      </c>
+      <c r="F18">
+        <v>-4.7140000000000004</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" t="s">
         <v>131</v>
       </c>
-      <c r="J17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18">
-        <v>3.8149999999999999</v>
-      </c>
-      <c r="C18">
-        <v>3.1059999999999999</v>
-      </c>
-      <c r="D18">
-        <v>1.41</v>
-      </c>
-      <c r="E18">
-        <v>5.4029999999999996</v>
-      </c>
-      <c r="F18">
-        <v>2.2969999999999997</v>
-      </c>
-      <c r="J18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B19">
-        <v>3.532</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="C19">
-        <v>2.6669999999999998</v>
+        <v>5.8819999999999997</v>
       </c>
       <c r="D19">
-        <v>1.2809999999999999</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="E19">
-        <v>5.758</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>3.0910000000000002</v>
-      </c>
-      <c r="J19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-4.8819999999999997</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B20">
-        <v>5.2990000000000004</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="C20">
+        <v>5.8479999999999999</v>
+      </c>
+      <c r="D20">
+        <v>5.2389999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F20">
+        <v>-4.8970000000000002</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>1.079</v>
+      </c>
+      <c r="C21">
+        <v>5.6870000000000003</v>
+      </c>
+      <c r="D21">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F21">
+        <v>-5.0540000000000003</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22">
+        <v>1.71</v>
+      </c>
+      <c r="C22">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="D22">
+        <v>3.891</v>
+      </c>
+      <c r="E22">
+        <v>0.95</v>
+      </c>
+      <c r="F22">
+        <v>-5.2379999999999995</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="C23">
+        <v>6.1369999999999996</v>
+      </c>
+      <c r="D23">
+        <v>1.806</v>
+      </c>
+      <c r="E23">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F23">
+        <v>-5.2889999999999997</v>
+      </c>
+      <c r="K23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="C24">
+        <v>6.2859999999999996</v>
+      </c>
+      <c r="D24">
+        <v>5.8550000000000004</v>
+      </c>
+      <c r="E24">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="F24">
+        <v>-5.4169999999999998</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>1.167</v>
+      </c>
+      <c r="C25">
+        <v>6.4790000000000001</v>
+      </c>
+      <c r="D25">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.877</v>
+      </c>
+      <c r="F25">
+        <v>-5.6020000000000003</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
         <v>1.8460000000000001</v>
       </c>
-      <c r="D20">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E20">
-        <v>6.2839999999999998</v>
-      </c>
-      <c r="F20">
-        <v>4.4379999999999997</v>
-      </c>
-      <c r="J20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21">
-        <v>4.9560000000000004</v>
-      </c>
-      <c r="C21">
-        <v>1.6719999999999999</v>
-      </c>
-      <c r="D21">
-        <v>1.127</v>
-      </c>
-      <c r="E21">
-        <v>6.8239999999999998</v>
-      </c>
-      <c r="F21">
-        <v>5.1520000000000001</v>
-      </c>
-      <c r="J21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22">
-        <v>6.3860000000000001</v>
-      </c>
-      <c r="C22">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D22">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="E22">
-        <v>6.4139999999999997</v>
-      </c>
-      <c r="F22">
-        <v>5.5519999999999996</v>
-      </c>
-      <c r="G22" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23">
-        <v>4.2</v>
-      </c>
-      <c r="C23">
-        <v>1.403</v>
-      </c>
-      <c r="D23">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="E23">
-        <v>7.1029999999999998</v>
-      </c>
-      <c r="F23">
-        <v>5.6999999999999993</v>
-      </c>
-      <c r="J23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="C24">
-        <v>1.5229999999999999</v>
-      </c>
-      <c r="D24">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="E24">
-        <v>7.5739999999999998</v>
-      </c>
-      <c r="F24">
-        <v>6.0510000000000002</v>
-      </c>
-      <c r="H24" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25">
-        <v>4.5</v>
-      </c>
-      <c r="C25">
-        <v>1.224</v>
-      </c>
-      <c r="D25">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="E25">
-        <v>7.3179999999999996</v>
-      </c>
-      <c r="F25">
-        <v>6.0939999999999994</v>
-      </c>
-      <c r="H25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26">
-        <v>5.3529999999999998</v>
-      </c>
       <c r="C26">
-        <v>1.2949999999999999</v>
+        <v>6.5670000000000002</v>
       </c>
       <c r="D26">
-        <v>0.98399999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="E26">
-        <v>7.6379999999999999</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="F26">
-        <v>6.343</v>
+        <v>-5.71</v>
       </c>
       <c r="G26" t="s">
         <v>125</v>
@@ -2429,30 +2538,33 @@
         <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B27">
-        <v>2.0310000000000001</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="C27">
-        <v>1.5</v>
+        <v>6.8029999999999999</v>
       </c>
       <c r="D27">
-        <v>0.83099999999999996</v>
+        <v>3.161</v>
       </c>
       <c r="E27">
-        <v>8.1489999999999991</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="F27">
-        <v>6.6489999999999991</v>
+        <v>-5.8860000000000001</v>
       </c>
       <c r="G27" t="s">
         <v>125</v>
@@ -2461,30 +2573,33 @@
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B28">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="C28">
-        <v>1.6</v>
+        <v>6.6269999999999998</v>
       </c>
       <c r="D28">
-        <v>1.25</v>
+        <v>2.1230000000000002</v>
       </c>
       <c r="E28">
-        <v>8.4290000000000003</v>
+        <v>0.54</v>
       </c>
       <c r="F28">
-        <v>6.8290000000000006</v>
+        <v>-6.0869999999999997</v>
       </c>
       <c r="G28" t="s">
         <v>125</v>
@@ -2493,23 +2608,40 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>129</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J28" xr:uid="{126BD3DF-1197-4B07-A469-03E2E8EA072E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
-      <sortCondition ref="F1:F28"/>
+  <autoFilter ref="A1:K28" xr:uid="{126BD3DF-1197-4B07-A469-03E2E8EA072E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K28">
+      <sortCondition descending="1" ref="F1:F28"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J25" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
+    <hyperlink ref="K5" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
+    <hyperlink ref="K28" r:id="rId2" xr:uid="{074CF494-B507-FE43-8DBC-A6925CC35000}"/>
+    <hyperlink ref="K27" r:id="rId3" xr:uid="{1046C548-7B01-BE4F-B115-2ABBD79D9469}"/>
+    <hyperlink ref="K26" r:id="rId4" xr:uid="{D1D21DD9-5F55-2C4C-BE33-D4E6D8F99DB8}"/>
+    <hyperlink ref="K25" r:id="rId5" xr:uid="{B46D8C88-F26B-644E-9A5B-50519638872C}"/>
+    <hyperlink ref="K24" r:id="rId6" xr:uid="{6EA09AA9-82A4-6C4F-8930-0D8312DB36CE}"/>
+    <hyperlink ref="K22" r:id="rId7" xr:uid="{A352F16F-DA7E-1C4A-B970-9CD04B2A74AF}"/>
+    <hyperlink ref="K21" r:id="rId8" xr:uid="{07057B49-2AC9-D048-B48E-2DA56A910B4E}"/>
+    <hyperlink ref="K20" r:id="rId9" xr:uid="{90A53B6D-B60B-2741-A85E-BAD709D8C0AB}"/>
+    <hyperlink ref="K16" r:id="rId10" xr:uid="{8996E478-F985-5F4C-9B34-A0FD29464773}"/>
+    <hyperlink ref="K15" r:id="rId11" xr:uid="{7B724FE0-2DAA-4444-AD9C-1F9E0DFA834A}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{1140B9C3-21EE-C541-80E4-7142BE6105FB}"/>
+    <hyperlink ref="K8" r:id="rId13" xr:uid="{1FCE75ED-F007-6043-8AFB-D70BF7880BA9}"/>
+    <hyperlink ref="K6" r:id="rId14" xr:uid="{FDFECE27-35DA-2C46-AA3E-F0FA1A698A8B}"/>
+    <hyperlink ref="K4" r:id="rId15" xr:uid="{F11B8BA4-587D-B042-8B02-812A441A22E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Data/urls and tweet names.xlsx
+++ b/Data/urls and tweet names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github projects\polpan\covid_leaders_gender\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F4801E-FD0D-4586-A4C6-8B45501D63C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFFFA4E-0AC8-481D-8480-DC5D69492B6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="covid" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$K$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$M$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">immigration!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
   <si>
     <t>Tweet name</t>
   </si>
@@ -410,9 +410,6 @@
     <t>gap_anger_trust</t>
   </si>
   <si>
-    <t>selection_jk</t>
-  </si>
-  <si>
     <t>selection_JK</t>
   </si>
   <si>
@@ -441,6 +438,27 @@
   </si>
   <si>
     <t>control(?)</t>
+  </si>
+  <si>
+    <t>selection_jk_without medium</t>
+  </si>
+  <si>
+    <t>selection_jk_with medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selection_JK_w medium </t>
+  </si>
+  <si>
+    <t>high_trust / low anger</t>
+  </si>
+  <si>
+    <t>medium_anger</t>
+  </si>
+  <si>
+    <t>medium_trust / low anger</t>
+  </si>
+  <si>
+    <t>high_anger / low_trust</t>
   </si>
 </sst>
 </file>
@@ -851,16 +869,16 @@
         <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -886,16 +904,16 @@
         <v>-6.1229999999999993</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>58</v>
@@ -921,16 +939,16 @@
         <v>-5.6769999999999996</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
@@ -956,16 +974,16 @@
         <v>-4.4960000000000004</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K4" t="s">
         <v>60</v>
@@ -1014,13 +1032,13 @@
         <v>-3.6259999999999994</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>53</v>
@@ -1046,13 +1064,13 @@
         <v>-3.4819999999999998</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>51</v>
@@ -1101,13 +1119,13 @@
         <v>-3.3190000000000004</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>57</v>
@@ -1133,7 +1151,7 @@
         <v>-3.2889999999999997</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>52</v>
@@ -1205,7 +1223,7 @@
         <v>-2.4110000000000005</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>50</v>
@@ -1231,13 +1249,13 @@
         <v>-2.391</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>55</v>
@@ -1286,13 +1304,13 @@
         <v>-1.8950000000000005</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>54</v>
@@ -1318,13 +1336,13 @@
         <v>-0.7200000000000002</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>48</v>
@@ -1350,16 +1368,16 @@
         <v>0.29300000000000015</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s">
         <v>46</v>
@@ -1385,13 +1403,13 @@
         <v>1.024</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1532,16 +1550,16 @@
         <v>4.5640000000000001</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s">
         <v>38</v>
@@ -1636,13 +1654,13 @@
         <v>5.1899999999999995</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>35</v>
@@ -1668,16 +1686,16 @@
         <v>5.37</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>37</v>
@@ -1703,16 +1721,16 @@
         <v>5.6719999999999997</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K31" t="s">
         <v>33</v>
@@ -1738,16 +1756,16 @@
         <v>6.5869999999999997</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K32" t="s">
         <v>34</v>
@@ -1780,20 +1798,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EED990-D6F7-4EFC-9974-FCEDBCC8E7AD}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.33203125" customWidth="1"/>
+    <col min="8" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1813,833 +1832,905 @@
         <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>1.6</v>
+      </c>
+      <c r="C2">
+        <v>6.6269999999999998</v>
+      </c>
+      <c r="D2">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.54</v>
+      </c>
+      <c r="F2">
+        <v>-6.0869999999999997</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>1.143</v>
+      </c>
+      <c r="C3">
+        <v>5.0750000000000002</v>
+      </c>
+      <c r="D3">
+        <v>2.831</v>
+      </c>
+      <c r="E3">
+        <v>0.59</v>
+      </c>
+      <c r="F3">
+        <v>-4.4850000000000003</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>1.079</v>
+      </c>
+      <c r="C4">
+        <v>5.6870000000000003</v>
+      </c>
+      <c r="D4">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F4">
+        <v>-5.0540000000000003</v>
+      </c>
+      <c r="H4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>2.609</v>
+      </c>
+      <c r="C5">
+        <v>5.0289999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F5">
+        <v>-4.3520000000000003</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="C6">
+        <v>6.1369999999999996</v>
+      </c>
+      <c r="D6">
+        <v>1.806</v>
+      </c>
+      <c r="E6">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F6">
+        <v>-5.2889999999999997</v>
+      </c>
+      <c r="M6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="C7">
+        <v>6.5670000000000002</v>
+      </c>
+      <c r="D7">
+        <v>2.8</v>
+      </c>
+      <c r="E7">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F7">
+        <v>-5.71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="C8">
+        <v>6.2859999999999996</v>
+      </c>
+      <c r="D8">
+        <v>5.8550000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="F8">
+        <v>-5.4169999999999998</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>1.167</v>
+      </c>
+      <c r="C9">
+        <v>6.4790000000000001</v>
+      </c>
+      <c r="D9">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.877</v>
+      </c>
+      <c r="F9">
+        <v>-5.6020000000000003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="C10">
+        <v>6.8029999999999999</v>
+      </c>
+      <c r="D10">
+        <v>3.161</v>
+      </c>
+      <c r="E10">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F10">
+        <v>-5.8860000000000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>1.71</v>
+      </c>
+      <c r="C11">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="D11">
+        <v>3.891</v>
+      </c>
+      <c r="E11">
+        <v>0.95</v>
+      </c>
+      <c r="F11">
+        <v>-5.2379999999999995</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="C12">
+        <v>5.8479999999999999</v>
+      </c>
+      <c r="D12">
+        <v>5.2389999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F12">
+        <v>-4.8970000000000002</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="C13">
+        <v>5.8819999999999997</v>
+      </c>
+      <c r="D13">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F13">
+        <v>-4.8819999999999997</v>
+      </c>
+      <c r="M13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14">
+        <v>2.29</v>
+      </c>
+      <c r="C14">
+        <v>5.8810000000000002</v>
+      </c>
+      <c r="D14">
+        <v>2.9060000000000001</v>
+      </c>
+      <c r="E14">
+        <v>1.167</v>
+      </c>
+      <c r="F14">
+        <v>-4.7140000000000004</v>
+      </c>
+      <c r="G14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>2.569</v>
+      </c>
+      <c r="C15">
+        <v>5.9420000000000002</v>
+      </c>
+      <c r="D15">
+        <v>3.806</v>
+      </c>
+      <c r="E15">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="F15">
+        <v>-4.665</v>
+      </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>4.319</v>
+      </c>
+      <c r="C16">
+        <v>4.056</v>
+      </c>
+      <c r="D16">
+        <v>1.536</v>
+      </c>
+      <c r="E16">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="F16">
+        <v>-2.613</v>
+      </c>
+      <c r="G16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5.2990000000000004</v>
+      </c>
+      <c r="D17">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="E17">
+        <v>1.615</v>
+      </c>
+      <c r="F17">
+        <v>-3.6840000000000002</v>
+      </c>
+      <c r="M17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="C18">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="D18">
+        <v>1.41</v>
+      </c>
+      <c r="E18">
+        <v>5.4029999999999996</v>
+      </c>
+      <c r="F18">
+        <v>2.2969999999999997</v>
+      </c>
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <v>3.532</v>
+      </c>
+      <c r="C19">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="D19">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="E19">
+        <v>5.758</v>
+      </c>
+      <c r="F19">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <v>5.2990000000000004</v>
+      </c>
+      <c r="C20">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E20">
+        <v>6.2839999999999998</v>
+      </c>
+      <c r="F20">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>6.3860000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E21">
+        <v>6.4139999999999997</v>
+      </c>
+      <c r="F21">
+        <v>5.5519999999999996</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="C22">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="D22">
+        <v>1.127</v>
+      </c>
+      <c r="E22">
+        <v>6.8239999999999998</v>
+      </c>
+      <c r="F22">
+        <v>5.1520000000000001</v>
+      </c>
+      <c r="M22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23">
+        <v>4.2</v>
+      </c>
+      <c r="C23">
+        <v>1.403</v>
+      </c>
+      <c r="D23">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="E23">
+        <v>7.1029999999999998</v>
+      </c>
+      <c r="F23">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="M23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24">
+        <v>4.5</v>
+      </c>
+      <c r="C24">
+        <v>1.224</v>
+      </c>
+      <c r="D24">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E24">
+        <v>7.3179999999999996</v>
+      </c>
+      <c r="F24">
+        <v>6.0939999999999994</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24" t="s">
+        <v>139</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="C25">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E25">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="F25">
+        <v>6.0510000000000002</v>
+      </c>
+      <c r="J25" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" t="s">
+        <v>129</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26">
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="C26">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E26">
+        <v>7.6379999999999999</v>
+      </c>
+      <c r="F26">
+        <v>6.343</v>
+      </c>
+      <c r="G26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L26" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.5</v>
+      </c>
+      <c r="D27">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E27">
+        <v>8.1489999999999991</v>
+      </c>
+      <c r="F27">
+        <v>6.6489999999999991</v>
+      </c>
+      <c r="G27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>84</v>
       </c>
-      <c r="B2">
+      <c r="B28">
         <v>4.75</v>
       </c>
-      <c r="C2">
+      <c r="C28">
         <v>1.6</v>
       </c>
-      <c r="D2">
+      <c r="D28">
         <v>1.25</v>
       </c>
-      <c r="E2">
+      <c r="E28">
         <v>8.4290000000000003</v>
       </c>
-      <c r="F2">
+      <c r="F28">
         <v>6.8290000000000006</v>
       </c>
-      <c r="G2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="G28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3">
-        <v>2.0310000000000001</v>
-      </c>
-      <c r="C3">
-        <v>1.5</v>
-      </c>
-      <c r="D3">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="E3">
-        <v>8.1489999999999991</v>
-      </c>
-      <c r="F3">
-        <v>6.6489999999999991</v>
-      </c>
-      <c r="G3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4">
-        <v>5.3529999999999998</v>
-      </c>
-      <c r="C4">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="E4">
-        <v>7.6379999999999999</v>
-      </c>
-      <c r="F4">
-        <v>6.343</v>
-      </c>
-      <c r="G4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5">
-        <v>4.5</v>
-      </c>
-      <c r="C5">
-        <v>1.224</v>
-      </c>
-      <c r="D5">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="E5">
-        <v>7.3179999999999996</v>
-      </c>
-      <c r="F5">
-        <v>6.0939999999999994</v>
-      </c>
-      <c r="G5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="C6">
-        <v>1.5229999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="E6">
-        <v>7.5739999999999998</v>
-      </c>
-      <c r="F6">
-        <v>6.0510000000000002</v>
-      </c>
-      <c r="H6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7">
-        <v>4.2</v>
-      </c>
-      <c r="C7">
-        <v>1.403</v>
-      </c>
-      <c r="D7">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="E7">
-        <v>7.1029999999999998</v>
-      </c>
-      <c r="F7">
-        <v>5.6999999999999993</v>
-      </c>
-      <c r="K7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8">
-        <v>6.3860000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="E8">
-        <v>6.4139999999999997</v>
-      </c>
-      <c r="F8">
-        <v>5.5519999999999996</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9">
-        <v>4.9560000000000004</v>
-      </c>
-      <c r="C9">
-        <v>1.6719999999999999</v>
-      </c>
-      <c r="D9">
-        <v>1.127</v>
-      </c>
-      <c r="E9">
-        <v>6.8239999999999998</v>
-      </c>
-      <c r="F9">
-        <v>5.1520000000000001</v>
-      </c>
-      <c r="K9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10">
-        <v>5.2990000000000004</v>
-      </c>
-      <c r="C10">
-        <v>1.8460000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E10">
-        <v>6.2839999999999998</v>
-      </c>
-      <c r="F10">
-        <v>4.4379999999999997</v>
-      </c>
-      <c r="K10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11">
-        <v>3.532</v>
-      </c>
-      <c r="C11">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="D11">
-        <v>1.2809999999999999</v>
-      </c>
-      <c r="E11">
-        <v>5.758</v>
-      </c>
-      <c r="F11">
-        <v>3.0910000000000002</v>
-      </c>
-      <c r="K11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12">
-        <v>3.8149999999999999</v>
-      </c>
-      <c r="C12">
-        <v>3.1059999999999999</v>
-      </c>
-      <c r="D12">
-        <v>1.41</v>
-      </c>
-      <c r="E12">
-        <v>5.4029999999999996</v>
-      </c>
-      <c r="F12">
-        <v>2.2969999999999997</v>
-      </c>
-      <c r="K12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13">
-        <v>4.319</v>
-      </c>
-      <c r="C13">
-        <v>4.056</v>
-      </c>
-      <c r="D13">
-        <v>1.536</v>
-      </c>
-      <c r="E13">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="F13">
-        <v>-2.613</v>
-      </c>
-      <c r="G13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>5.2990000000000004</v>
-      </c>
-      <c r="D14">
-        <v>2.8239999999999998</v>
-      </c>
-      <c r="E14">
-        <v>1.615</v>
-      </c>
-      <c r="F14">
-        <v>-3.6840000000000002</v>
-      </c>
-      <c r="K14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15">
-        <v>2.609</v>
-      </c>
-      <c r="C15">
-        <v>5.0289999999999999</v>
-      </c>
-      <c r="D15">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="E15">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="F15">
-        <v>-4.3520000000000003</v>
-      </c>
-      <c r="G15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16">
-        <v>1.143</v>
-      </c>
-      <c r="C16">
-        <v>5.0750000000000002</v>
-      </c>
-      <c r="D16">
-        <v>2.831</v>
-      </c>
-      <c r="E16">
-        <v>0.59</v>
-      </c>
-      <c r="F16">
-        <v>-4.4850000000000003</v>
-      </c>
-      <c r="G16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17">
-        <v>2.569</v>
-      </c>
-      <c r="C17">
-        <v>5.9420000000000002</v>
-      </c>
-      <c r="D17">
-        <v>3.806</v>
-      </c>
-      <c r="E17">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="F17">
-        <v>-4.665</v>
-      </c>
-      <c r="K17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18">
-        <v>2.29</v>
-      </c>
-      <c r="C18">
-        <v>5.8810000000000002</v>
-      </c>
-      <c r="D18">
-        <v>2.9060000000000001</v>
-      </c>
-      <c r="E18">
-        <v>1.167</v>
-      </c>
-      <c r="F18">
-        <v>-4.7140000000000004</v>
-      </c>
-      <c r="G18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19">
-        <v>1.4710000000000001</v>
-      </c>
-      <c r="C19">
-        <v>5.8819999999999997</v>
-      </c>
-      <c r="D19">
-        <v>2.8180000000000001</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>-4.8819999999999997</v>
-      </c>
-      <c r="K19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="C20">
-        <v>5.8479999999999999</v>
-      </c>
-      <c r="D20">
-        <v>5.2389999999999999</v>
-      </c>
-      <c r="E20">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="F20">
-        <v>-4.8970000000000002</v>
-      </c>
-      <c r="H20" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21">
-        <v>1.079</v>
-      </c>
-      <c r="C21">
-        <v>5.6870000000000003</v>
-      </c>
-      <c r="D21">
-        <v>3.1539999999999999</v>
-      </c>
-      <c r="E21">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="F21">
-        <v>-5.0540000000000003</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22">
-        <v>1.71</v>
-      </c>
-      <c r="C22">
-        <v>6.1879999999999997</v>
-      </c>
-      <c r="D22">
-        <v>3.891</v>
-      </c>
-      <c r="E22">
-        <v>0.95</v>
-      </c>
-      <c r="F22">
-        <v>-5.2379999999999995</v>
-      </c>
-      <c r="H22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="C23">
-        <v>6.1369999999999996</v>
-      </c>
-      <c r="D23">
-        <v>1.806</v>
-      </c>
-      <c r="E23">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="F23">
-        <v>-5.2889999999999997</v>
-      </c>
-      <c r="K23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="C24">
-        <v>6.2859999999999996</v>
-      </c>
-      <c r="D24">
-        <v>5.8550000000000004</v>
-      </c>
-      <c r="E24">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="F24">
-        <v>-5.4169999999999998</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25">
-        <v>1.167</v>
-      </c>
-      <c r="C25">
-        <v>6.4790000000000001</v>
-      </c>
-      <c r="D25">
-        <v>5.5350000000000001</v>
-      </c>
-      <c r="E25">
-        <v>0.877</v>
-      </c>
-      <c r="F25">
-        <v>-5.6020000000000003</v>
-      </c>
-      <c r="G25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" t="s">
-        <v>129</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26">
-        <v>1.8460000000000001</v>
-      </c>
-      <c r="C26">
-        <v>6.5670000000000002</v>
-      </c>
-      <c r="D26">
-        <v>2.8</v>
-      </c>
-      <c r="E26">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="F26">
-        <v>-5.71</v>
-      </c>
-      <c r="G26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" t="s">
-        <v>129</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27">
-        <v>2.1749999999999998</v>
-      </c>
-      <c r="C27">
-        <v>6.8029999999999999</v>
-      </c>
-      <c r="D27">
-        <v>3.161</v>
-      </c>
-      <c r="E27">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="F27">
-        <v>-5.8860000000000001</v>
-      </c>
-      <c r="G27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" t="s">
-        <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28">
-        <v>1.6</v>
-      </c>
-      <c r="C28">
-        <v>6.6269999999999998</v>
-      </c>
-      <c r="D28">
-        <v>2.1230000000000002</v>
-      </c>
-      <c r="E28">
-        <v>0.54</v>
-      </c>
-      <c r="F28">
-        <v>-6.0869999999999997</v>
-      </c>
-      <c r="G28" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" t="s">
-        <v>129</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K28" xr:uid="{126BD3DF-1197-4B07-A469-03E2E8EA072E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K28">
-      <sortCondition descending="1" ref="F1:F28"/>
+  <autoFilter ref="A1:M28" xr:uid="{126BD3DF-1197-4B07-A469-03E2E8EA072E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M28">
+      <sortCondition ref="E1:E28"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
-    <hyperlink ref="K28" r:id="rId2" xr:uid="{074CF494-B507-FE43-8DBC-A6925CC35000}"/>
-    <hyperlink ref="K27" r:id="rId3" xr:uid="{1046C548-7B01-BE4F-B115-2ABBD79D9469}"/>
-    <hyperlink ref="K26" r:id="rId4" xr:uid="{D1D21DD9-5F55-2C4C-BE33-D4E6D8F99DB8}"/>
-    <hyperlink ref="K25" r:id="rId5" xr:uid="{B46D8C88-F26B-644E-9A5B-50519638872C}"/>
-    <hyperlink ref="K24" r:id="rId6" xr:uid="{6EA09AA9-82A4-6C4F-8930-0D8312DB36CE}"/>
-    <hyperlink ref="K22" r:id="rId7" xr:uid="{A352F16F-DA7E-1C4A-B970-9CD04B2A74AF}"/>
-    <hyperlink ref="K21" r:id="rId8" xr:uid="{07057B49-2AC9-D048-B48E-2DA56A910B4E}"/>
-    <hyperlink ref="K20" r:id="rId9" xr:uid="{90A53B6D-B60B-2741-A85E-BAD709D8C0AB}"/>
-    <hyperlink ref="K16" r:id="rId10" xr:uid="{8996E478-F985-5F4C-9B34-A0FD29464773}"/>
-    <hyperlink ref="K15" r:id="rId11" xr:uid="{7B724FE0-2DAA-4444-AD9C-1F9E0DFA834A}"/>
-    <hyperlink ref="K13" r:id="rId12" xr:uid="{1140B9C3-21EE-C541-80E4-7142BE6105FB}"/>
-    <hyperlink ref="K8" r:id="rId13" xr:uid="{1FCE75ED-F007-6043-8AFB-D70BF7880BA9}"/>
-    <hyperlink ref="K6" r:id="rId14" xr:uid="{FDFECE27-35DA-2C46-AA3E-F0FA1A698A8B}"/>
-    <hyperlink ref="K4" r:id="rId15" xr:uid="{F11B8BA4-587D-B042-8B02-812A441A22E9}"/>
+    <hyperlink ref="M24" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{074CF494-B507-FE43-8DBC-A6925CC35000}"/>
+    <hyperlink ref="M10" r:id="rId3" xr:uid="{1046C548-7B01-BE4F-B115-2ABBD79D9469}"/>
+    <hyperlink ref="M7" r:id="rId4" xr:uid="{D1D21DD9-5F55-2C4C-BE33-D4E6D8F99DB8}"/>
+    <hyperlink ref="M9" r:id="rId5" xr:uid="{B46D8C88-F26B-644E-9A5B-50519638872C}"/>
+    <hyperlink ref="M8" r:id="rId6" xr:uid="{6EA09AA9-82A4-6C4F-8930-0D8312DB36CE}"/>
+    <hyperlink ref="M11" r:id="rId7" xr:uid="{A352F16F-DA7E-1C4A-B970-9CD04B2A74AF}"/>
+    <hyperlink ref="M4" r:id="rId8" xr:uid="{07057B49-2AC9-D048-B48E-2DA56A910B4E}"/>
+    <hyperlink ref="M12" r:id="rId9" xr:uid="{90A53B6D-B60B-2741-A85E-BAD709D8C0AB}"/>
+    <hyperlink ref="M3" r:id="rId10" xr:uid="{8996E478-F985-5F4C-9B34-A0FD29464773}"/>
+    <hyperlink ref="M5" r:id="rId11" xr:uid="{7B724FE0-2DAA-4444-AD9C-1F9E0DFA834A}"/>
+    <hyperlink ref="M16" r:id="rId12" xr:uid="{1140B9C3-21EE-C541-80E4-7142BE6105FB}"/>
+    <hyperlink ref="M21" r:id="rId13" xr:uid="{1FCE75ED-F007-6043-8AFB-D70BF7880BA9}"/>
+    <hyperlink ref="M25" r:id="rId14" xr:uid="{FDFECE27-35DA-2C46-AA3E-F0FA1A698A8B}"/>
+    <hyperlink ref="M26" r:id="rId15" xr:uid="{F11B8BA4-587D-B042-8B02-812A441A22E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>

--- a/Data/urls and tweet names.xlsx
+++ b/Data/urls and tweet names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github projects\polpan\covid_leaders_gender\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFFFA4E-0AC8-481D-8480-DC5D69492B6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FE9861-3103-4E3A-9B67-C2E2F538BE6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="covid" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$M$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$N$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">immigration!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="141">
   <si>
     <t>Tweet name</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>high_anger / low_trust</t>
+  </si>
+  <si>
+    <t>final selection</t>
   </si>
 </sst>
 </file>
@@ -496,12 +499,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -517,10 +526,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1798,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EED990-D6F7-4EFC-9974-FCEDBCC8E7AD}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="M16" sqref="M2:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1809,10 +1819,10 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" customWidth="1"/>
+    <col min="12" max="13" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1850,27 +1860,30 @@
         <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B2">
-        <v>1.6</v>
+        <v>1.143</v>
       </c>
       <c r="C2">
-        <v>6.6269999999999998</v>
+        <v>5.0750000000000002</v>
       </c>
       <c r="D2">
-        <v>2.1230000000000002</v>
+        <v>2.831</v>
       </c>
       <c r="E2">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="F2">
-        <v>-6.0869999999999997</v>
+        <v>-4.4850000000000003</v>
       </c>
       <c r="G2" t="s">
         <v>124</v>
@@ -1885,33 +1898,36 @@
         <v>124</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>1.143</v>
+        <v>2.609</v>
       </c>
       <c r="C3">
-        <v>5.0750000000000002</v>
+        <v>5.0289999999999999</v>
       </c>
       <c r="D3">
-        <v>2.831</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="E3">
-        <v>0.59</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="F3">
-        <v>-4.4850000000000003</v>
+        <v>-4.3520000000000003</v>
       </c>
       <c r="G3" t="s">
         <v>124</v>
@@ -1931,62 +1947,71 @@
       <c r="L3" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>1.079</v>
+        <v>2.29</v>
       </c>
       <c r="C4">
-        <v>5.6870000000000003</v>
+        <v>5.8810000000000002</v>
       </c>
       <c r="D4">
-        <v>3.1539999999999999</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="E4">
-        <v>0.63300000000000001</v>
+        <v>1.167</v>
       </c>
       <c r="F4">
-        <v>-5.0540000000000003</v>
-      </c>
-      <c r="H4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-4.7140000000000004</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B5">
-        <v>2.609</v>
+        <v>4.319</v>
       </c>
       <c r="C5">
-        <v>5.0289999999999999</v>
+        <v>4.056</v>
       </c>
       <c r="D5">
-        <v>0.91900000000000004</v>
+        <v>1.536</v>
       </c>
       <c r="E5">
-        <v>0.67700000000000005</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="F5">
-        <v>-4.3520000000000003</v>
+        <v>-2.613</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" t="s">
         <v>124</v>
       </c>
       <c r="I5" t="s">
@@ -1998,739 +2023,770 @@
       <c r="K5" t="s">
         <v>130</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="C6">
+        <v>5.8479999999999999</v>
+      </c>
+      <c r="D6">
+        <v>5.2389999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F6">
+        <v>-4.8970000000000002</v>
+      </c>
+      <c r="I6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>4.5</v>
+      </c>
+      <c r="C7">
+        <v>1.224</v>
+      </c>
+      <c r="D7">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E7">
+        <v>7.3179999999999996</v>
+      </c>
+      <c r="F7">
+        <v>6.0939999999999994</v>
+      </c>
+      <c r="G7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="C8">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E8">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="F8">
+        <v>6.0510000000000002</v>
+      </c>
+      <c r="J8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9">
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="C9">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E9">
+        <v>7.6379999999999999</v>
+      </c>
+      <c r="F9">
+        <v>6.343</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="C10">
+        <v>1.5</v>
+      </c>
+      <c r="D10">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E10">
+        <v>8.1489999999999991</v>
+      </c>
+      <c r="F10">
+        <v>6.6489999999999991</v>
+      </c>
+      <c r="G10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11">
+        <v>4.75</v>
+      </c>
+      <c r="C11">
+        <v>1.6</v>
+      </c>
+      <c r="D11">
+        <v>1.25</v>
+      </c>
+      <c r="E11">
+        <v>8.4290000000000003</v>
+      </c>
+      <c r="F11">
+        <v>6.8290000000000006</v>
+      </c>
+      <c r="G11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>1.6</v>
+      </c>
+      <c r="C12">
+        <v>6.6269999999999998</v>
+      </c>
+      <c r="D12">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.54</v>
+      </c>
+      <c r="F12">
+        <v>-6.0869999999999997</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="C13">
+        <v>6.5670000000000002</v>
+      </c>
+      <c r="D13">
+        <v>2.8</v>
+      </c>
+      <c r="E13">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F13">
+        <v>-5.71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>1.167</v>
+      </c>
+      <c r="C14">
+        <v>6.4790000000000001</v>
+      </c>
+      <c r="D14">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.877</v>
+      </c>
+      <c r="F14">
+        <v>-5.6020000000000003</v>
+      </c>
+      <c r="G14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="C15">
+        <v>6.8029999999999999</v>
+      </c>
+      <c r="D15">
+        <v>3.161</v>
+      </c>
+      <c r="E15">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F15">
+        <v>-5.8860000000000001</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>1.71</v>
+      </c>
+      <c r="C16">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="D16">
+        <v>3.891</v>
+      </c>
+      <c r="E16">
+        <v>0.95</v>
+      </c>
+      <c r="F16">
+        <v>-5.2379999999999995</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>1.079</v>
+      </c>
+      <c r="C17">
+        <v>5.6870000000000003</v>
+      </c>
+      <c r="D17">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F17">
+        <v>-5.0540000000000003</v>
+      </c>
+      <c r="H17" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="N17" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>82</v>
       </c>
-      <c r="B6">
+      <c r="B18">
         <v>1.1859999999999999</v>
       </c>
-      <c r="C6">
+      <c r="C18">
         <v>6.1369999999999996</v>
       </c>
-      <c r="D6">
+      <c r="D18">
         <v>1.806</v>
       </c>
-      <c r="E6">
+      <c r="E18">
         <v>0.84799999999999998</v>
       </c>
-      <c r="F6">
+      <c r="F18">
         <v>-5.2889999999999997</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="C19">
+        <v>6.2859999999999996</v>
+      </c>
+      <c r="D19">
+        <v>5.8550000000000004</v>
+      </c>
+      <c r="E19">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="F19">
+        <v>-5.4169999999999998</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="C20">
+        <v>5.8819999999999997</v>
+      </c>
+      <c r="D20">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>-4.8819999999999997</v>
+      </c>
+      <c r="N20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>2.569</v>
+      </c>
+      <c r="C21">
+        <v>5.9420000000000002</v>
+      </c>
+      <c r="D21">
+        <v>3.806</v>
+      </c>
+      <c r="E21">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="F21">
+        <v>-4.665</v>
+      </c>
+      <c r="N21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>5.2990000000000004</v>
+      </c>
+      <c r="D22">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="E22">
+        <v>1.615</v>
+      </c>
+      <c r="F22">
+        <v>-3.6840000000000002</v>
+      </c>
+      <c r="N22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="C23">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="D23">
+        <v>1.41</v>
+      </c>
+      <c r="E23">
+        <v>5.4029999999999996</v>
+      </c>
+      <c r="F23">
+        <v>2.2969999999999997</v>
+      </c>
+      <c r="H23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" t="s">
+        <v>137</v>
+      </c>
+      <c r="N23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24">
+        <v>3.532</v>
+      </c>
+      <c r="C24">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="D24">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="E24">
+        <v>5.758</v>
+      </c>
+      <c r="F24">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="H24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" t="s">
+        <v>137</v>
+      </c>
+      <c r="N24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25">
+        <v>5.2990000000000004</v>
+      </c>
+      <c r="C25">
         <v>1.8460000000000001</v>
       </c>
-      <c r="C7">
-        <v>6.5670000000000002</v>
-      </c>
-      <c r="D7">
-        <v>2.8</v>
-      </c>
-      <c r="E7">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="F7">
-        <v>-5.71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="C8">
-        <v>6.2859999999999996</v>
-      </c>
-      <c r="D8">
-        <v>5.8550000000000004</v>
-      </c>
-      <c r="E8">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="F8">
-        <v>-5.4169999999999998</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9">
-        <v>1.167</v>
-      </c>
-      <c r="C9">
-        <v>6.4790000000000001</v>
-      </c>
-      <c r="D9">
-        <v>5.5350000000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.877</v>
-      </c>
-      <c r="F9">
-        <v>-5.6020000000000003</v>
-      </c>
-      <c r="G9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10">
-        <v>2.1749999999999998</v>
-      </c>
-      <c r="C10">
-        <v>6.8029999999999999</v>
-      </c>
-      <c r="D10">
-        <v>3.161</v>
-      </c>
-      <c r="E10">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="F10">
-        <v>-5.8860000000000001</v>
-      </c>
-      <c r="G10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" t="s">
-        <v>136</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11">
-        <v>1.71</v>
-      </c>
-      <c r="C11">
-        <v>6.1879999999999997</v>
-      </c>
-      <c r="D11">
-        <v>3.891</v>
-      </c>
-      <c r="E11">
-        <v>0.95</v>
-      </c>
-      <c r="F11">
-        <v>-5.2379999999999995</v>
-      </c>
-      <c r="I11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="C12">
-        <v>5.8479999999999999</v>
-      </c>
-      <c r="D12">
-        <v>5.2389999999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="F12">
-        <v>-4.8970000000000002</v>
-      </c>
-      <c r="I12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" t="s">
-        <v>132</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13">
-        <v>1.4710000000000001</v>
-      </c>
-      <c r="C13">
-        <v>5.8819999999999997</v>
-      </c>
-      <c r="D13">
-        <v>2.8180000000000001</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>-4.8819999999999997</v>
-      </c>
-      <c r="M13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14">
-        <v>2.29</v>
-      </c>
-      <c r="C14">
-        <v>5.8810000000000002</v>
-      </c>
-      <c r="D14">
-        <v>2.9060000000000001</v>
-      </c>
-      <c r="E14">
-        <v>1.167</v>
-      </c>
-      <c r="F14">
-        <v>-4.7140000000000004</v>
-      </c>
-      <c r="G14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K14" t="s">
-        <v>130</v>
-      </c>
-      <c r="M14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15">
-        <v>2.569</v>
-      </c>
-      <c r="C15">
-        <v>5.9420000000000002</v>
-      </c>
-      <c r="D15">
-        <v>3.806</v>
-      </c>
-      <c r="E15">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="F15">
-        <v>-4.665</v>
-      </c>
-      <c r="M15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16">
-        <v>4.319</v>
-      </c>
-      <c r="C16">
-        <v>4.056</v>
-      </c>
-      <c r="D16">
-        <v>1.536</v>
-      </c>
-      <c r="E16">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="F16">
-        <v>-2.613</v>
-      </c>
-      <c r="G16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" t="s">
-        <v>130</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>5.2990000000000004</v>
-      </c>
-      <c r="D17">
-        <v>2.8239999999999998</v>
-      </c>
-      <c r="E17">
-        <v>1.615</v>
-      </c>
-      <c r="F17">
-        <v>-3.6840000000000002</v>
-      </c>
-      <c r="M17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18">
-        <v>3.8149999999999999</v>
-      </c>
-      <c r="C18">
-        <v>3.1059999999999999</v>
-      </c>
-      <c r="D18">
-        <v>1.41</v>
-      </c>
-      <c r="E18">
-        <v>5.4029999999999996</v>
-      </c>
-      <c r="F18">
-        <v>2.2969999999999997</v>
-      </c>
-      <c r="H18" t="s">
-        <v>124</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="D25">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E25">
+        <v>6.2839999999999998</v>
+      </c>
+      <c r="F25">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" t="s">
         <v>137</v>
       </c>
-      <c r="M18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19">
-        <v>3.532</v>
-      </c>
-      <c r="C19">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="D19">
-        <v>1.2809999999999999</v>
-      </c>
-      <c r="E19">
-        <v>5.758</v>
-      </c>
-      <c r="F19">
-        <v>3.0910000000000002</v>
-      </c>
-      <c r="H19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20">
-        <v>5.2990000000000004</v>
-      </c>
-      <c r="C20">
-        <v>1.8460000000000001</v>
-      </c>
-      <c r="D20">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E20">
-        <v>6.2839999999999998</v>
-      </c>
-      <c r="F20">
-        <v>4.4379999999999997</v>
-      </c>
-      <c r="H20" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" t="s">
-        <v>137</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="N25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>65</v>
       </c>
-      <c r="B21">
+      <c r="B26">
         <v>6.3860000000000001</v>
       </c>
-      <c r="C21">
+      <c r="C26">
         <v>0.86199999999999999</v>
       </c>
-      <c r="D21">
+      <c r="D26">
         <v>0.70299999999999996</v>
       </c>
-      <c r="E21">
+      <c r="E26">
         <v>6.4139999999999997</v>
       </c>
-      <c r="F21">
+      <c r="F26">
         <v>5.5519999999999996</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
-      <c r="B22">
+      <c r="B27">
         <v>4.9560000000000004</v>
       </c>
-      <c r="C22">
+      <c r="C27">
         <v>1.6719999999999999</v>
       </c>
-      <c r="D22">
+      <c r="D27">
         <v>1.127</v>
       </c>
-      <c r="E22">
+      <c r="E27">
         <v>6.8239999999999998</v>
       </c>
-      <c r="F22">
+      <c r="F27">
         <v>5.1520000000000001</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>111</v>
       </c>
-      <c r="B23">
+      <c r="B28">
         <v>4.2</v>
       </c>
-      <c r="C23">
+      <c r="C28">
         <v>1.403</v>
       </c>
-      <c r="D23">
+      <c r="D28">
         <v>1.0980000000000001</v>
       </c>
-      <c r="E23">
+      <c r="E28">
         <v>7.1029999999999998</v>
       </c>
-      <c r="F23">
+      <c r="F28">
         <v>5.6999999999999993</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24">
-        <v>4.5</v>
-      </c>
-      <c r="C24">
-        <v>1.224</v>
-      </c>
-      <c r="D24">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="E24">
-        <v>7.3179999999999996</v>
-      </c>
-      <c r="F24">
-        <v>6.0939999999999994</v>
-      </c>
-      <c r="G24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" t="s">
-        <v>129</v>
-      </c>
-      <c r="L24" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="C25">
-        <v>1.5229999999999999</v>
-      </c>
-      <c r="D25">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="E25">
-        <v>7.5739999999999998</v>
-      </c>
-      <c r="F25">
-        <v>6.0510000000000002</v>
-      </c>
-      <c r="J25" t="s">
-        <v>124</v>
-      </c>
-      <c r="K25" t="s">
-        <v>129</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26">
-        <v>5.3529999999999998</v>
-      </c>
-      <c r="C26">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="D26">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="E26">
-        <v>7.6379999999999999</v>
-      </c>
-      <c r="F26">
-        <v>6.343</v>
-      </c>
-      <c r="G26" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" t="s">
-        <v>129</v>
-      </c>
-      <c r="L26" t="s">
-        <v>139</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27">
-        <v>2.0310000000000001</v>
-      </c>
-      <c r="C27">
-        <v>1.5</v>
-      </c>
-      <c r="D27">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="E27">
-        <v>8.1489999999999991</v>
-      </c>
-      <c r="F27">
-        <v>6.6489999999999991</v>
-      </c>
-      <c r="G27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" t="s">
-        <v>129</v>
-      </c>
-      <c r="L27" t="s">
-        <v>139</v>
-      </c>
-      <c r="M27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28">
-        <v>4.75</v>
-      </c>
-      <c r="C28">
-        <v>1.6</v>
-      </c>
-      <c r="D28">
-        <v>1.25</v>
-      </c>
-      <c r="E28">
-        <v>8.4290000000000003</v>
-      </c>
-      <c r="F28">
-        <v>6.8290000000000006</v>
-      </c>
-      <c r="G28" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" t="s">
-        <v>129</v>
-      </c>
-      <c r="M28" t="s">
-        <v>106</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M28" xr:uid="{126BD3DF-1197-4B07-A469-03E2E8EA072E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M28">
-      <sortCondition ref="E1:E28"/>
+  <autoFilter ref="A1:N28" xr:uid="{126BD3DF-1197-4B07-A469-03E2E8EA072E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N28">
+      <sortCondition ref="K1:K28"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M24" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{074CF494-B507-FE43-8DBC-A6925CC35000}"/>
-    <hyperlink ref="M10" r:id="rId3" xr:uid="{1046C548-7B01-BE4F-B115-2ABBD79D9469}"/>
-    <hyperlink ref="M7" r:id="rId4" xr:uid="{D1D21DD9-5F55-2C4C-BE33-D4E6D8F99DB8}"/>
-    <hyperlink ref="M9" r:id="rId5" xr:uid="{B46D8C88-F26B-644E-9A5B-50519638872C}"/>
-    <hyperlink ref="M8" r:id="rId6" xr:uid="{6EA09AA9-82A4-6C4F-8930-0D8312DB36CE}"/>
-    <hyperlink ref="M11" r:id="rId7" xr:uid="{A352F16F-DA7E-1C4A-B970-9CD04B2A74AF}"/>
-    <hyperlink ref="M4" r:id="rId8" xr:uid="{07057B49-2AC9-D048-B48E-2DA56A910B4E}"/>
-    <hyperlink ref="M12" r:id="rId9" xr:uid="{90A53B6D-B60B-2741-A85E-BAD709D8C0AB}"/>
-    <hyperlink ref="M3" r:id="rId10" xr:uid="{8996E478-F985-5F4C-9B34-A0FD29464773}"/>
-    <hyperlink ref="M5" r:id="rId11" xr:uid="{7B724FE0-2DAA-4444-AD9C-1F9E0DFA834A}"/>
-    <hyperlink ref="M16" r:id="rId12" xr:uid="{1140B9C3-21EE-C541-80E4-7142BE6105FB}"/>
-    <hyperlink ref="M21" r:id="rId13" xr:uid="{1FCE75ED-F007-6043-8AFB-D70BF7880BA9}"/>
-    <hyperlink ref="M25" r:id="rId14" xr:uid="{FDFECE27-35DA-2C46-AA3E-F0FA1A698A8B}"/>
-    <hyperlink ref="M26" r:id="rId15" xr:uid="{F11B8BA4-587D-B042-8B02-812A441A22E9}"/>
+    <hyperlink ref="N7" r:id="rId1" xr:uid="{E6CFD2E4-EC6E-40E2-A316-72E26ADF8E2A}"/>
+    <hyperlink ref="N12" r:id="rId2" xr:uid="{074CF494-B507-FE43-8DBC-A6925CC35000}"/>
+    <hyperlink ref="N15" r:id="rId3" xr:uid="{1046C548-7B01-BE4F-B115-2ABBD79D9469}"/>
+    <hyperlink ref="N13" r:id="rId4" xr:uid="{D1D21DD9-5F55-2C4C-BE33-D4E6D8F99DB8}"/>
+    <hyperlink ref="N14" r:id="rId5" xr:uid="{B46D8C88-F26B-644E-9A5B-50519638872C}"/>
+    <hyperlink ref="N19" r:id="rId6" xr:uid="{6EA09AA9-82A4-6C4F-8930-0D8312DB36CE}"/>
+    <hyperlink ref="N16" r:id="rId7" xr:uid="{A352F16F-DA7E-1C4A-B970-9CD04B2A74AF}"/>
+    <hyperlink ref="N17" r:id="rId8" xr:uid="{07057B49-2AC9-D048-B48E-2DA56A910B4E}"/>
+    <hyperlink ref="N6" r:id="rId9" xr:uid="{90A53B6D-B60B-2741-A85E-BAD709D8C0AB}"/>
+    <hyperlink ref="N2" r:id="rId10" xr:uid="{8996E478-F985-5F4C-9B34-A0FD29464773}"/>
+    <hyperlink ref="N3" r:id="rId11" xr:uid="{7B724FE0-2DAA-4444-AD9C-1F9E0DFA834A}"/>
+    <hyperlink ref="N5" r:id="rId12" xr:uid="{1140B9C3-21EE-C541-80E4-7142BE6105FB}"/>
+    <hyperlink ref="N26" r:id="rId13" xr:uid="{1FCE75ED-F007-6043-8AFB-D70BF7880BA9}"/>
+    <hyperlink ref="N8" r:id="rId14" xr:uid="{FDFECE27-35DA-2C46-AA3E-F0FA1A698A8B}"/>
+    <hyperlink ref="N9" r:id="rId15" xr:uid="{F11B8BA4-587D-B042-8B02-812A441A22E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>

--- a/Data/urls and tweet names.xlsx
+++ b/Data/urls and tweet names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github projects\polpan\covid_leaders_gender\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FE9861-3103-4E3A-9B67-C2E2F538BE6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A931D33-8901-4F2B-AAD9-CDAFBE371157}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{914505A7-F87C-4C92-B14A-1371F970280E}"/>
   </bookViews>
   <sheets>
     <sheet name="immigration" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">covid!$A$1:$N$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">immigration!$A$1:$K$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">immigration!$A$1:$L$32</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="141">
   <si>
     <t>Tweet name</t>
   </si>
@@ -846,20 +846,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4486E-E01C-4D25-85C4-44DBEAA8987E}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.77734375" customWidth="1"/>
+    <col min="8" max="11" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,10 +891,13 @@
         <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -925,11 +928,14 @@
       <c r="J2" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -961,10 +967,13 @@
         <v>128</v>
       </c>
       <c r="K3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -996,10 +1005,13 @@
         <v>128</v>
       </c>
       <c r="K4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1018,11 +1030,11 @@
       <c r="F5">
         <v>-3.8010000000000002</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1050,11 +1062,14 @@
       <c r="J6" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1082,11 +1097,14 @@
       <c r="J7" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1105,11 +1123,11 @@
       <c r="F8">
         <v>-3.4239999999999999</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1137,11 +1155,11 @@
       <c r="I9" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1163,11 +1181,11 @@
       <c r="G10" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1186,11 +1204,11 @@
       <c r="F11">
         <v>-2.9059999999999997</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1209,11 +1227,11 @@
       <c r="F12">
         <v>-2.7389999999999999</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1235,11 +1253,11 @@
       <c r="G13" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1267,11 +1285,14 @@
       <c r="J14" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1290,11 +1311,11 @@
       <c r="F15">
         <v>-1.9340000000000006</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1322,11 +1343,14 @@
       <c r="J16" t="s">
         <v>130</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1354,11 +1378,14 @@
       <c r="J17" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1390,10 +1417,13 @@
         <v>130</v>
       </c>
       <c r="K18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1421,11 +1451,11 @@
       <c r="J19" t="s">
         <v>130</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1444,11 +1474,11 @@
       <c r="F20">
         <v>1.0630000000000002</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1467,11 +1497,11 @@
       <c r="F21">
         <v>2.1540000000000004</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1490,11 +1520,11 @@
       <c r="F22">
         <v>2.8380000000000001</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1513,11 +1543,11 @@
       <c r="F23">
         <v>3.79</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1536,11 +1566,11 @@
       <c r="F24">
         <v>4.4610000000000003</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1572,10 +1602,13 @@
         <v>129</v>
       </c>
       <c r="K25" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1594,11 +1627,11 @@
       <c r="F26">
         <v>4.6899999999999995</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1617,11 +1650,11 @@
       <c r="F27">
         <v>4.9870000000000001</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1640,11 +1673,11 @@
       <c r="F28">
         <v>5.1660000000000004</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1672,11 +1705,14 @@
       <c r="J29" t="s">
         <v>129</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1707,11 +1743,14 @@
       <c r="J30" t="s">
         <v>129</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1743,10 +1782,13 @@
         <v>129</v>
       </c>
       <c r="K31" t="s">
+        <v>124</v>
+      </c>
+      <c r="L31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1778,28 +1820,31 @@
         <v>129</v>
       </c>
       <c r="K32" t="s">
+        <v>124</v>
+      </c>
+      <c r="L32" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K32" xr:uid="{F3A6193A-CC72-4EA3-9756-EF782EA4EFA3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K32">
+  <autoFilter ref="A1:L32" xr:uid="{F3A6193A-CC72-4EA3-9756-EF782EA4EFA3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L32">
       <sortCondition ref="F1:F32"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{7B69BB90-BE8E-8743-A993-DFE2C7FAB6B6}"/>
-    <hyperlink ref="K6" r:id="rId2" xr:uid="{1DD2D80F-3E62-8A4B-BA22-CC391C6295EB}"/>
-    <hyperlink ref="K7" r:id="rId3" xr:uid="{D19306D5-C5A3-214A-9E4B-C9B372BD5898}"/>
-    <hyperlink ref="K9" r:id="rId4" xr:uid="{A653B129-DBB3-E54A-BCCC-44272EF22464}"/>
-    <hyperlink ref="K13" r:id="rId5" xr:uid="{89A710FC-B457-C34E-9686-8C292D8F7245}"/>
-    <hyperlink ref="K30" r:id="rId6" xr:uid="{B2F2C672-F2AA-394A-8B4C-EF0D1E31F26A}"/>
-    <hyperlink ref="K29" r:id="rId7" xr:uid="{10C97B21-2E2F-7840-A91A-2C46C0D99A38}"/>
-    <hyperlink ref="K17" r:id="rId8" xr:uid="{B02DF016-F3CA-6F4C-BAD4-1CCE79A9DA33}"/>
-    <hyperlink ref="K16" r:id="rId9" xr:uid="{913F7A1C-1AC0-0F4C-BF86-4C0E2A1B21A6}"/>
-    <hyperlink ref="K14" r:id="rId10" xr:uid="{2B23FFF7-1FA2-D846-98E4-17AEE5C4ACB6}"/>
-    <hyperlink ref="K10" r:id="rId11" xr:uid="{51FFE589-2335-AD4E-866A-8428EE13F612}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{7B69BB90-BE8E-8743-A993-DFE2C7FAB6B6}"/>
+    <hyperlink ref="L6" r:id="rId2" xr:uid="{1DD2D80F-3E62-8A4B-BA22-CC391C6295EB}"/>
+    <hyperlink ref="L7" r:id="rId3" xr:uid="{D19306D5-C5A3-214A-9E4B-C9B372BD5898}"/>
+    <hyperlink ref="L9" r:id="rId4" xr:uid="{A653B129-DBB3-E54A-BCCC-44272EF22464}"/>
+    <hyperlink ref="L13" r:id="rId5" xr:uid="{89A710FC-B457-C34E-9686-8C292D8F7245}"/>
+    <hyperlink ref="L30" r:id="rId6" xr:uid="{B2F2C672-F2AA-394A-8B4C-EF0D1E31F26A}"/>
+    <hyperlink ref="L29" r:id="rId7" xr:uid="{10C97B21-2E2F-7840-A91A-2C46C0D99A38}"/>
+    <hyperlink ref="L17" r:id="rId8" xr:uid="{B02DF016-F3CA-6F4C-BAD4-1CCE79A9DA33}"/>
+    <hyperlink ref="L16" r:id="rId9" xr:uid="{913F7A1C-1AC0-0F4C-BF86-4C0E2A1B21A6}"/>
+    <hyperlink ref="L14" r:id="rId10" xr:uid="{2B23FFF7-1FA2-D846-98E4-17AEE5C4ACB6}"/>
+    <hyperlink ref="L10" r:id="rId11" xr:uid="{51FFE589-2335-AD4E-866A-8428EE13F612}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
@@ -1810,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EED990-D6F7-4EFC-9974-FCEDBCC8E7AD}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M2:M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
